--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2072801.328488275</v>
+        <v>-2075496.678206677</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673446</v>
       </c>
     </row>
     <row r="9">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,49 +1218,49 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,11 +1309,11 @@
         <v>6.056421089299432</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0568805807625</v>
+        <v>299.2748996165698</v>
       </c>
       <c r="H11" t="n">
         <v>295.9919197866239</v>
       </c>
       <c r="I11" t="n">
-        <v>46.78749010800661</v>
+        <v>46.78749010800678</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>112.2676046942299</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0059843530867</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>293.9684557671605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.0717834270508</v>
       </c>
       <c r="H12" t="n">
-        <v>90.29527894253184</v>
+        <v>90.29527894253187</v>
       </c>
       <c r="I12" t="n">
-        <v>11.18123886521057</v>
+        <v>11.18123886521066</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>145.2940338131473</v>
       </c>
       <c r="I13" t="n">
-        <v>98.17560498787302</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>190.8255685104301</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>177.9786838801926</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2151450700228</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>156.8469480001575</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,22 +1610,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>232.5435185263497</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9321492551762</v>
+        <v>410.9321492551761</v>
       </c>
       <c r="H14" t="n">
-        <v>294.714515098463</v>
+        <v>192.7485221341621</v>
       </c>
       <c r="I14" t="n">
-        <v>41.97878567833999</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.4252896124317</v>
+        <v>109.4252896124316</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I15" t="n">
-        <v>9.850416382685024</v>
+        <v>10.33959683028452</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>128.247100173363</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>116.8992097993956</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>166.0304839279157</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7965858613387</v>
       </c>
       <c r="I16" t="n">
-        <v>96.49303052510928</v>
+        <v>96.49303052510925</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.14238774566135</v>
       </c>
       <c r="S16" t="n">
         <v>189.8505094883267</v>
       </c>
       <c r="T16" t="n">
-        <v>219.568927134143</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2120932420976</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>207.4527689234029</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F17" t="n">
-        <v>359.6894290244868</v>
+        <v>359.6894290244867</v>
       </c>
       <c r="G17" t="n">
         <v>363.7455325379515</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.238672895207</v>
+        <v>62.23867289520696</v>
       </c>
       <c r="T17" t="n">
-        <v>156.7769827389366</v>
+        <v>156.7769827389365</v>
       </c>
       <c r="U17" t="n">
         <v>203.8093891298151</v>
       </c>
       <c r="V17" t="n">
-        <v>280.5656417529103</v>
+        <v>280.5656417529102</v>
       </c>
       <c r="W17" t="n">
-        <v>302.0543520001884</v>
+        <v>302.0543520001883</v>
       </c>
       <c r="X17" t="n">
-        <v>322.5444839612444</v>
+        <v>322.5444839612443</v>
       </c>
       <c r="Y17" t="n">
         <v>339.0513219388289</v>
@@ -1941,7 +1941,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I18" t="n">
-        <v>9.850416382685024</v>
+        <v>10.33959683028452</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>128.247100173363</v>
@@ -2002,25 +2002,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C19" t="n">
-        <v>120.0602043814032</v>
+        <v>120.0602043814031</v>
       </c>
       <c r="D19" t="n">
         <v>101.4288563009877</v>
       </c>
       <c r="E19" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934448</v>
       </c>
       <c r="F19" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570655</v>
       </c>
       <c r="G19" t="n">
-        <v>118.8438672106911</v>
+        <v>118.843867210691</v>
       </c>
       <c r="H19" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411399</v>
       </c>
       <c r="I19" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788459</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95577102843672</v>
+        <v>41.95577102843669</v>
       </c>
       <c r="S19" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T19" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U19" t="n">
-        <v>239.025476524873</v>
+        <v>239.0254765248729</v>
       </c>
       <c r="V19" t="n">
         <v>204.9510266066033</v>
       </c>
       <c r="W19" t="n">
-        <v>239.3363816193663</v>
+        <v>239.336381619367</v>
       </c>
       <c r="X19" t="n">
         <v>178.5230386718125</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.23867289520699</v>
+        <v>62.23867289520696</v>
       </c>
       <c r="T20" t="n">
-        <v>156.7769827389379</v>
+        <v>156.7769827389365</v>
       </c>
       <c r="U20" t="n">
-        <v>203.8093891298151</v>
+        <v>203.809389129815</v>
       </c>
       <c r="V20" t="n">
         <v>280.5656417529102</v>
@@ -2178,7 +2178,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I21" t="n">
-        <v>9.850416382685024</v>
+        <v>10.33959683028452</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>128.247100173363</v>
@@ -2239,25 +2239,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C22" t="n">
-        <v>120.0602043814032</v>
+        <v>120.0602043814031</v>
       </c>
       <c r="D22" t="n">
         <v>101.4288563009877</v>
       </c>
       <c r="E22" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934448</v>
       </c>
       <c r="F22" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570655</v>
       </c>
       <c r="G22" t="n">
         <v>118.843867210691</v>
       </c>
       <c r="H22" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411399</v>
       </c>
       <c r="I22" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788459</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843669</v>
       </c>
       <c r="S22" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T22" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U22" t="n">
-        <v>239.025476524873</v>
+        <v>239.0254765248729</v>
       </c>
       <c r="V22" t="n">
         <v>204.9510266066033</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.23867289520699</v>
+        <v>62.23867289520696</v>
       </c>
       <c r="T23" t="n">
-        <v>156.7769827389366</v>
+        <v>156.7769827389365</v>
       </c>
       <c r="U23" t="n">
         <v>203.8093891298151</v>
@@ -2415,7 +2415,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I24" t="n">
-        <v>10.33959683028451</v>
+        <v>10.33959683028452</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C25" t="n">
-        <v>120.0602043814032</v>
+        <v>120.0602043814031</v>
       </c>
       <c r="D25" t="n">
         <v>101.4288563009877</v>
       </c>
       <c r="E25" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934448</v>
       </c>
       <c r="F25" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570655</v>
       </c>
       <c r="G25" t="n">
-        <v>118.8438672106911</v>
+        <v>118.843867210691</v>
       </c>
       <c r="H25" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411399</v>
       </c>
       <c r="I25" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788459</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843669</v>
       </c>
       <c r="S25" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T25" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U25" t="n">
-        <v>239.025476524873</v>
+        <v>239.0254765248729</v>
       </c>
       <c r="V25" t="n">
         <v>204.9510266066033</v>
@@ -2564,7 +2564,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F26" t="n">
-        <v>359.6894290244867</v>
+        <v>359.6894290244868</v>
       </c>
       <c r="G26" t="n">
         <v>363.7455325379515</v>
@@ -2612,13 +2612,13 @@
         <v>203.8093891298151</v>
       </c>
       <c r="V26" t="n">
-        <v>280.5656417529102</v>
+        <v>280.5656417529103</v>
       </c>
       <c r="W26" t="n">
-        <v>302.0543520001883</v>
+        <v>302.0543520001884</v>
       </c>
       <c r="X26" t="n">
-        <v>322.5444839612443</v>
+        <v>322.5444839612444</v>
       </c>
       <c r="Y26" t="n">
         <v>339.0513219388289</v>
@@ -2652,7 +2652,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I27" t="n">
-        <v>10.33959683028452</v>
+        <v>10.33959683028451</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.6453634647126</v>
+        <v>132.6453634647127</v>
       </c>
       <c r="C28" t="n">
         <v>120.0602043814032</v>
@@ -2719,19 +2719,19 @@
         <v>101.4288563009877</v>
       </c>
       <c r="E28" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934452</v>
       </c>
       <c r="F28" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570659</v>
       </c>
       <c r="G28" t="n">
-        <v>118.843867210691</v>
+        <v>118.8438672106911</v>
       </c>
       <c r="H28" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411403</v>
       </c>
       <c r="I28" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788463</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843674</v>
       </c>
       <c r="S28" t="n">
         <v>142.663892771102</v>
@@ -2770,16 +2770,16 @@
         <v>239.025476524873</v>
       </c>
       <c r="V28" t="n">
-        <v>204.9510266066033</v>
+        <v>204.9510266066034</v>
       </c>
       <c r="W28" t="n">
-        <v>239.3363816193663</v>
+        <v>239.3363816193664</v>
       </c>
       <c r="X28" t="n">
         <v>178.5230386718125</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.3980366348701</v>
+        <v>171.3980366348702</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F29" t="n">
-        <v>359.6894290244867</v>
+        <v>359.6894290244868</v>
       </c>
       <c r="G29" t="n">
         <v>363.7455325379515</v>
@@ -2849,13 +2849,13 @@
         <v>203.8093891298151</v>
       </c>
       <c r="V29" t="n">
-        <v>280.5656417529102</v>
+        <v>280.5656417529103</v>
       </c>
       <c r="W29" t="n">
-        <v>302.0543520001883</v>
+        <v>302.0543520001884</v>
       </c>
       <c r="X29" t="n">
-        <v>322.5444839612443</v>
+        <v>322.5444839612444</v>
       </c>
       <c r="Y29" t="n">
         <v>339.0513219388289</v>
@@ -2889,7 +2889,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I30" t="n">
-        <v>9.850416382685038</v>
+        <v>9.850416382685024</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.6453634647126</v>
+        <v>132.6453634647127</v>
       </c>
       <c r="C31" t="n">
         <v>120.0602043814032</v>
@@ -2956,19 +2956,19 @@
         <v>101.4288563009877</v>
       </c>
       <c r="E31" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934452</v>
       </c>
       <c r="F31" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570659</v>
       </c>
       <c r="G31" t="n">
-        <v>118.843867210691</v>
+        <v>118.8438672106911</v>
       </c>
       <c r="H31" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411403</v>
       </c>
       <c r="I31" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788463</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843674</v>
       </c>
       <c r="S31" t="n">
         <v>142.663892771102</v>
@@ -3007,16 +3007,16 @@
         <v>239.025476524873</v>
       </c>
       <c r="V31" t="n">
-        <v>204.9510266066033</v>
+        <v>204.9510266066034</v>
       </c>
       <c r="W31" t="n">
-        <v>239.3363816193663</v>
+        <v>239.3363816193664</v>
       </c>
       <c r="X31" t="n">
         <v>178.5230386718125</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.3980366348701</v>
+        <v>171.3980366348702</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.23867289520697</v>
+        <v>62.23867289520698</v>
       </c>
       <c r="T32" t="n">
         <v>156.7769827389366</v>
@@ -3126,7 +3126,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I33" t="n">
-        <v>9.85041638268501</v>
+        <v>10.33959683028451</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>128.247100173363</v>
@@ -3193,16 +3193,16 @@
         <v>101.4288563009877</v>
       </c>
       <c r="E34" t="n">
-        <v>99.24734592934449</v>
+        <v>99.2473459293445</v>
       </c>
       <c r="F34" t="n">
-        <v>98.23443130570656</v>
+        <v>98.23443130570658</v>
       </c>
       <c r="G34" t="n">
-        <v>118.843867210691</v>
+        <v>118.8438672106911</v>
       </c>
       <c r="H34" t="n">
-        <v>97.609969144114</v>
+        <v>97.60996914411402</v>
       </c>
       <c r="I34" t="n">
         <v>49.3064138078846</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9557710284367</v>
+        <v>41.95577102843671</v>
       </c>
       <c r="S34" t="n">
         <v>142.663892771102</v>
@@ -3241,7 +3241,7 @@
         <v>172.3823104169184</v>
       </c>
       <c r="U34" t="n">
-        <v>239.0254765248729</v>
+        <v>239.025476524873</v>
       </c>
       <c r="V34" t="n">
         <v>204.9510266066033</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.23867289520697</v>
+        <v>62.23867289520698</v>
       </c>
       <c r="T35" t="n">
         <v>156.7769827389366</v>
@@ -3363,7 +3363,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I36" t="n">
-        <v>9.85041638268501</v>
+        <v>10.33959683028451</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>128.247100173363</v>
@@ -3430,19 +3430,19 @@
         <v>101.4288563009877</v>
       </c>
       <c r="E37" t="n">
-        <v>99.24734592934449</v>
+        <v>99.2473459293445</v>
       </c>
       <c r="F37" t="n">
-        <v>98.23443130570656</v>
+        <v>98.23443130570658</v>
       </c>
       <c r="G37" t="n">
         <v>118.843867210691</v>
       </c>
       <c r="H37" t="n">
-        <v>97.609969144114</v>
+        <v>97.60996914411402</v>
       </c>
       <c r="I37" t="n">
-        <v>49.3064138078846</v>
+        <v>49.30641380788462</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9557710284367</v>
+        <v>41.95577102843671</v>
       </c>
       <c r="S37" t="n">
         <v>142.663892771102</v>
@@ -3478,7 +3478,7 @@
         <v>172.3823104169184</v>
       </c>
       <c r="U37" t="n">
-        <v>239.0254765248729</v>
+        <v>239.025476524873</v>
       </c>
       <c r="V37" t="n">
         <v>204.9510266066033</v>
@@ -3512,7 +3512,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F38" t="n">
-        <v>359.6894290244867</v>
+        <v>359.6894290244868</v>
       </c>
       <c r="G38" t="n">
         <v>363.7455325379515</v>
@@ -3554,19 +3554,19 @@
         <v>62.23867289520699</v>
       </c>
       <c r="T38" t="n">
-        <v>156.7769827389365</v>
+        <v>156.7769827389366</v>
       </c>
       <c r="U38" t="n">
         <v>203.8093891298151</v>
       </c>
       <c r="V38" t="n">
-        <v>280.5656417529102</v>
+        <v>280.5656417529103</v>
       </c>
       <c r="W38" t="n">
-        <v>302.0543520001883</v>
+        <v>302.0543520001884</v>
       </c>
       <c r="X38" t="n">
-        <v>322.5444839612443</v>
+        <v>322.5444839612444</v>
       </c>
       <c r="Y38" t="n">
         <v>339.0513219388289</v>
@@ -3667,19 +3667,19 @@
         <v>101.4288563009877</v>
       </c>
       <c r="E40" t="n">
-        <v>99.24734592934449</v>
+        <v>99.2473459293445</v>
       </c>
       <c r="F40" t="n">
-        <v>98.23443130570656</v>
+        <v>98.23443130570658</v>
       </c>
       <c r="G40" t="n">
-        <v>118.843867210691</v>
+        <v>118.8438672106911</v>
       </c>
       <c r="H40" t="n">
-        <v>97.609969144114</v>
+        <v>97.60996914411402</v>
       </c>
       <c r="I40" t="n">
-        <v>49.3064138078846</v>
+        <v>49.30641380788462</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95577102843669</v>
+        <v>41.95577102843671</v>
       </c>
       <c r="S40" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T40" t="n">
-        <v>172.3823104169183</v>
+        <v>172.3823104169184</v>
       </c>
       <c r="U40" t="n">
-        <v>239.0254765248729</v>
+        <v>239.025476524873</v>
       </c>
       <c r="V40" t="n">
         <v>204.9510266066033</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.23867289520696</v>
+        <v>62.23867289520699</v>
       </c>
       <c r="T41" t="n">
         <v>156.7769827389365</v>
@@ -3837,7 +3837,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I42" t="n">
-        <v>10.33959683028452</v>
+        <v>9.850416382685038</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S42" t="n">
         <v>128.247100173363</v>
@@ -3898,25 +3898,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C43" t="n">
-        <v>120.0602043814031</v>
+        <v>120.0602043814032</v>
       </c>
       <c r="D43" t="n">
         <v>101.4288563009877</v>
       </c>
       <c r="E43" t="n">
-        <v>99.24734592934448</v>
+        <v>99.24734592934449</v>
       </c>
       <c r="F43" t="n">
-        <v>98.23443130570655</v>
+        <v>98.23443130570656</v>
       </c>
       <c r="G43" t="n">
         <v>118.843867210691</v>
       </c>
       <c r="H43" t="n">
-        <v>97.60996914411399</v>
+        <v>97.609969144114</v>
       </c>
       <c r="I43" t="n">
-        <v>49.30641380788459</v>
+        <v>49.3064138078846</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.23867289520697</v>
+        <v>62.23867289520699</v>
       </c>
       <c r="T44" t="n">
         <v>156.7769827389365</v>
@@ -4074,7 +4074,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I45" t="n">
-        <v>9.85041638268501</v>
+        <v>9.850416382685038</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C46" t="n">
-        <v>120.0602043814031</v>
+        <v>120.0602043814032</v>
       </c>
       <c r="D46" t="n">
         <v>101.4288563009877</v>
       </c>
       <c r="E46" t="n">
-        <v>99.24734592934448</v>
+        <v>99.24734592934449</v>
       </c>
       <c r="F46" t="n">
-        <v>98.23443130570655</v>
+        <v>98.23443130570656</v>
       </c>
       <c r="G46" t="n">
         <v>118.843867210691</v>
       </c>
       <c r="H46" t="n">
-        <v>97.60996914411399</v>
+        <v>97.609969144114</v>
       </c>
       <c r="I46" t="n">
-        <v>49.30641380788459</v>
+        <v>49.3064138078846</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F8" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="C8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
@@ -4805,19 +4805,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N8" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
@@ -4826,28 +4826,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
         <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M9" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N9" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
         <v>20.55868221764227</v>
@@ -4920,13 +4920,13 @@
         <v>20.55868221764227</v>
       </c>
       <c r="W9" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="E10" t="n">
         <v>13.6131814684388</v>
@@ -4957,7 +4957,7 @@
         <v>7.495584408540386</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
@@ -4981,31 +4981,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1990.403646790807</v>
+        <v>1849.970000916292</v>
       </c>
       <c r="C11" t="n">
-        <v>1621.441129850395</v>
+        <v>1481.00748397588</v>
       </c>
       <c r="D11" t="n">
-        <v>1621.441129850395</v>
+        <v>1122.74178536913</v>
       </c>
       <c r="E11" t="n">
-        <v>1235.652877252151</v>
+        <v>1122.74178536913</v>
       </c>
       <c r="F11" t="n">
-        <v>824.6669724625432</v>
+        <v>711.7558805795225</v>
       </c>
       <c r="G11" t="n">
         <v>409.4580021789448</v>
@@ -5036,55 +5036,55 @@
         <v>110.4762650207388</v>
       </c>
       <c r="I11" t="n">
-        <v>63.21617400255027</v>
+        <v>63.21617400255016</v>
       </c>
       <c r="J11" t="n">
         <v>240.7389105049997</v>
       </c>
       <c r="K11" t="n">
-        <v>557.5379927460092</v>
+        <v>557.5379927460094</v>
       </c>
       <c r="L11" t="n">
-        <v>987.4570294150144</v>
+        <v>987.4570294150135</v>
       </c>
       <c r="M11" t="n">
-        <v>1497.494231683389</v>
+        <v>1497.494231683387</v>
       </c>
       <c r="N11" t="n">
-        <v>2020.398177490777</v>
+        <v>2020.398177490774</v>
       </c>
       <c r="O11" t="n">
-        <v>2500.826284459064</v>
+        <v>2500.82628445906</v>
       </c>
       <c r="P11" t="n">
-        <v>2876.359557800454</v>
+        <v>2876.35955780045</v>
       </c>
       <c r="Q11" t="n">
-        <v>3110.19666001626</v>
+        <v>3110.196660016255</v>
       </c>
       <c r="R11" t="n">
-        <v>3160.808700127513</v>
+        <v>3160.808700127508</v>
       </c>
       <c r="S11" t="n">
-        <v>3047.407079224251</v>
+        <v>3160.808700127508</v>
       </c>
       <c r="T11" t="n">
-        <v>3047.407079224251</v>
+        <v>3160.808700127508</v>
       </c>
       <c r="U11" t="n">
-        <v>3047.407079224251</v>
+        <v>2907.267301791057</v>
       </c>
       <c r="V11" t="n">
-        <v>3047.407079224251</v>
+        <v>2576.204414447486</v>
       </c>
       <c r="W11" t="n">
-        <v>3047.407079224251</v>
+        <v>2223.435759177372</v>
       </c>
       <c r="X11" t="n">
-        <v>2673.941320963172</v>
+        <v>1849.970000916292</v>
       </c>
       <c r="Y11" t="n">
-        <v>2377.003486854929</v>
+        <v>1849.970000916292</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>165.717707141684</v>
       </c>
       <c r="H12" t="n">
-        <v>74.51035467448014</v>
+        <v>74.51035467448013</v>
       </c>
       <c r="I12" t="n">
-        <v>63.21617400255027</v>
+        <v>63.21617400255016</v>
       </c>
       <c r="J12" t="n">
-        <v>150.1296527539213</v>
+        <v>150.129652753921</v>
       </c>
       <c r="K12" t="n">
-        <v>376.8334560401581</v>
+        <v>376.8334560401574</v>
       </c>
       <c r="L12" t="n">
-        <v>727.9872377006538</v>
+        <v>727.9872377006525</v>
       </c>
       <c r="M12" t="n">
-        <v>1262.171479259174</v>
+        <v>1262.171479259176</v>
       </c>
       <c r="N12" t="n">
-        <v>1717.074866017446</v>
+        <v>1717.074866017447</v>
       </c>
       <c r="O12" t="n">
-        <v>2111.002797112215</v>
+        <v>2111.002797112216</v>
       </c>
       <c r="P12" t="n">
         <v>2407.831624872367</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>628.1979244246315</v>
+        <v>209.9778243188604</v>
       </c>
       <c r="C13" t="n">
-        <v>459.2617414967247</v>
+        <v>209.9778243188604</v>
       </c>
       <c r="D13" t="n">
-        <v>309.145102084389</v>
+        <v>209.9778243188604</v>
       </c>
       <c r="E13" t="n">
-        <v>309.145102084389</v>
+        <v>209.9778243188604</v>
       </c>
       <c r="F13" t="n">
-        <v>309.145102084389</v>
+        <v>209.9778243188604</v>
       </c>
       <c r="G13" t="n">
-        <v>309.145102084389</v>
+        <v>209.9778243188604</v>
       </c>
       <c r="H13" t="n">
-        <v>162.3834517680786</v>
+        <v>63.21617400255016</v>
       </c>
       <c r="I13" t="n">
-        <v>63.21617400255027</v>
+        <v>63.21617400255016</v>
       </c>
       <c r="J13" t="n">
-        <v>104.0954215042791</v>
+        <v>104.0954215042789</v>
       </c>
       <c r="K13" t="n">
-        <v>301.1094194718334</v>
+        <v>301.1094194718329</v>
       </c>
       <c r="L13" t="n">
-        <v>608.7459419277991</v>
+        <v>608.7459419277982</v>
       </c>
       <c r="M13" t="n">
-        <v>943.4946441288396</v>
+        <v>943.4946441288386</v>
       </c>
       <c r="N13" t="n">
-        <v>1275.718386813531</v>
+        <v>1275.71838681353</v>
       </c>
       <c r="O13" t="n">
-        <v>1566.564489639297</v>
+        <v>1566.564489639296</v>
       </c>
       <c r="P13" t="n">
-        <v>1791.912893594747</v>
+        <v>1791.912893594746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1864.49736761401</v>
+        <v>1864.497367614008</v>
       </c>
       <c r="R13" t="n">
-        <v>1864.49736761401</v>
+        <v>1864.497367614008</v>
       </c>
       <c r="S13" t="n">
-        <v>1671.744268108525</v>
+        <v>1671.744268108524</v>
       </c>
       <c r="T13" t="n">
-        <v>1671.744268108525</v>
+        <v>1491.967819744693</v>
       </c>
       <c r="U13" t="n">
-        <v>1671.744268108525</v>
+        <v>1202.861612603255</v>
       </c>
       <c r="V13" t="n">
-        <v>1417.059779902638</v>
+        <v>948.1771243973684</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.628519296419</v>
+        <v>658.7599543604078</v>
       </c>
       <c r="X13" t="n">
-        <v>1030.638968398401</v>
+        <v>430.7704034623905</v>
       </c>
       <c r="Y13" t="n">
-        <v>809.8463892548713</v>
+        <v>209.9778243188604</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2209.377938971639</v>
+        <v>1856.609283701525</v>
       </c>
       <c r="C14" t="n">
-        <v>1840.415422031226</v>
+        <v>1487.646766761113</v>
       </c>
       <c r="D14" t="n">
-        <v>1482.149723424476</v>
+        <v>1487.646766761113</v>
       </c>
       <c r="E14" t="n">
-        <v>1247.257280468567</v>
+        <v>1101.858514162869</v>
       </c>
       <c r="F14" t="n">
-        <v>836.2713756789594</v>
+        <v>690.8726093732615</v>
       </c>
       <c r="G14" t="n">
-        <v>421.1883966333269</v>
+        <v>275.7896303276291</v>
       </c>
       <c r="H14" t="n">
-        <v>123.4969672409401</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="I14" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J14" t="n">
         <v>269.0974411184163</v>
       </c>
       <c r="K14" t="n">
-        <v>601.6041527929062</v>
+        <v>922.5081112383593</v>
       </c>
       <c r="L14" t="n">
-        <v>1464.494495142696</v>
+        <v>1777.985218462194</v>
       </c>
       <c r="M14" t="n">
-        <v>1996.214409491191</v>
+        <v>2309.705132810689</v>
       </c>
       <c r="N14" t="n">
-        <v>2541.151916328733</v>
+        <v>2854.642639648231</v>
       </c>
       <c r="O14" t="n">
         <v>3355.876413499062</v>
@@ -5300,7 +5300,7 @@
         <v>3996.338828520943</v>
       </c>
       <c r="R14" t="n">
-        <v>4054.70767122175</v>
+        <v>4054.707671221749</v>
       </c>
       <c r="S14" t="n">
         <v>3944.177075653637</v>
@@ -5312,16 +5312,16 @@
         <v>3690.645756616223</v>
       </c>
       <c r="V14" t="n">
-        <v>3359.582869272652</v>
+        <v>3359.582869272653</v>
       </c>
       <c r="W14" t="n">
-        <v>3359.582869272652</v>
+        <v>3006.814214002539</v>
       </c>
       <c r="X14" t="n">
-        <v>2986.117111011573</v>
+        <v>2633.348455741459</v>
       </c>
       <c r="Y14" t="n">
-        <v>2595.977779035761</v>
+        <v>2243.209123765647</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>947.1285561634527</v>
+        <v>947.6226778276946</v>
       </c>
       <c r="C15" t="n">
-        <v>772.6755268823257</v>
+        <v>773.1696485465676</v>
       </c>
       <c r="D15" t="n">
-        <v>623.7411172210744</v>
+        <v>624.2352388853163</v>
       </c>
       <c r="E15" t="n">
-        <v>464.5036622156189</v>
+        <v>464.9977838798608</v>
       </c>
       <c r="F15" t="n">
-        <v>317.9691042425039</v>
+        <v>318.4632259067458</v>
       </c>
       <c r="G15" t="n">
-        <v>181.6003706219898</v>
+        <v>182.0944922862317</v>
       </c>
       <c r="H15" t="n">
-        <v>91.04406896250069</v>
+        <v>91.53819062674259</v>
       </c>
       <c r="I15" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J15" t="n">
         <v>174.2497766665191</v>
@@ -5379,28 +5379,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R15" t="n">
-        <v>2570.62160712066</v>
+        <v>2571.115728784902</v>
       </c>
       <c r="S15" t="n">
-        <v>2441.079081693021</v>
+        <v>2441.573203357263</v>
       </c>
       <c r="T15" t="n">
-        <v>2248.413374601453</v>
+        <v>2248.907496265695</v>
       </c>
       <c r="U15" t="n">
-        <v>2020.345157113952</v>
+        <v>2020.839278778194</v>
       </c>
       <c r="V15" t="n">
-        <v>1785.193048882209</v>
+        <v>1785.687170546451</v>
       </c>
       <c r="W15" t="n">
-        <v>1530.955692154007</v>
+        <v>1531.449813818249</v>
       </c>
       <c r="X15" t="n">
-        <v>1323.104191948475</v>
+        <v>1323.598313612717</v>
       </c>
       <c r="Y15" t="n">
-        <v>1115.343893183521</v>
+        <v>1115.838014847763</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.1524715273856</v>
+        <v>639.4185456843288</v>
       </c>
       <c r="C16" t="n">
-        <v>759.1524715273856</v>
+        <v>639.4185456843288</v>
       </c>
       <c r="D16" t="n">
-        <v>641.0724616290062</v>
+        <v>639.4185456843288</v>
       </c>
       <c r="E16" t="n">
-        <v>493.1593680466131</v>
+        <v>639.4185456843288</v>
       </c>
       <c r="F16" t="n">
-        <v>346.2694205487027</v>
+        <v>492.5285981864185</v>
       </c>
       <c r="G16" t="n">
-        <v>178.5618610255555</v>
+        <v>324.8210386632713</v>
       </c>
       <c r="H16" t="n">
         <v>178.5618610255555</v>
       </c>
       <c r="I16" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J16" t="n">
         <v>125.8895217789282</v>
       </c>
       <c r="K16" t="n">
-        <v>329.3389092923649</v>
+        <v>329.338909292365</v>
       </c>
       <c r="L16" t="n">
         <v>645.2105147399864</v>
       </c>
       <c r="M16" t="n">
-        <v>988.6419573118918</v>
+        <v>988.6419573118916</v>
       </c>
       <c r="N16" t="n">
         <v>1329.341984208308</v>
@@ -5458,28 +5458,28 @@
         <v>1937.287649851113</v>
       </c>
       <c r="R16" t="n">
-        <v>1937.287649851113</v>
+        <v>1847.244833946405</v>
       </c>
       <c r="S16" t="n">
-        <v>1745.519458448763</v>
+        <v>1655.476642544055</v>
       </c>
       <c r="T16" t="n">
-        <v>1523.73266336377</v>
+        <v>1655.476642544055</v>
       </c>
       <c r="U16" t="n">
-        <v>1234.629538876803</v>
+        <v>1366.373518057087</v>
       </c>
       <c r="V16" t="n">
-        <v>979.9450506709157</v>
+        <v>1366.373518057087</v>
       </c>
       <c r="W16" t="n">
-        <v>979.9450506709157</v>
+        <v>1076.956348020127</v>
       </c>
       <c r="X16" t="n">
-        <v>979.9450506709157</v>
+        <v>848.9667971221095</v>
       </c>
       <c r="Y16" t="n">
-        <v>759.1524715273856</v>
+        <v>639.4185456843288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2031.891439541562</v>
+        <v>2031.891439541561</v>
       </c>
       <c r="C17" t="n">
-        <v>1710.592171810468</v>
+        <v>1710.592171810467</v>
       </c>
       <c r="D17" t="n">
         <v>1399.989722413035</v>
       </c>
       <c r="E17" t="n">
-        <v>1061.864719024109</v>
+        <v>1061.864719024108</v>
       </c>
       <c r="F17" t="n">
-        <v>698.5420634438187</v>
+        <v>698.5420634438185</v>
       </c>
       <c r="G17" t="n">
-        <v>331.1223336075041</v>
+        <v>331.122333607504</v>
       </c>
       <c r="H17" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="I17" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J17" t="n">
         <v>269.0974411184163</v>
       </c>
       <c r="K17" t="n">
-        <v>883.5610803594468</v>
+        <v>601.6041527929062</v>
       </c>
       <c r="L17" t="n">
-        <v>1332.966820304291</v>
+        <v>1332.96682030429</v>
       </c>
       <c r="M17" t="n">
-        <v>2309.70513281069</v>
+        <v>2309.705132810689</v>
       </c>
       <c r="N17" t="n">
-        <v>2854.642639648232</v>
+        <v>2854.642639648231</v>
       </c>
       <c r="O17" t="n">
         <v>3355.876413499062</v>
@@ -5537,7 +5537,7 @@
         <v>3996.338828520943</v>
       </c>
       <c r="R17" t="n">
-        <v>4054.70767122175</v>
+        <v>4054.707671221749</v>
       </c>
       <c r="S17" t="n">
         <v>3991.840324862955</v>
@@ -5549,16 +5549,16 @@
         <v>3627.61166640967</v>
       </c>
       <c r="V17" t="n">
-        <v>3344.212028275418</v>
+        <v>3344.212028275417</v>
       </c>
       <c r="W17" t="n">
         <v>3039.106622214621</v>
       </c>
       <c r="X17" t="n">
-        <v>2713.30411316286</v>
+        <v>2713.304113162859</v>
       </c>
       <c r="Y17" t="n">
-        <v>2370.828030396366</v>
+        <v>2370.828030396365</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>947.1285561634527</v>
+        <v>947.6226778276946</v>
       </c>
       <c r="C18" t="n">
-        <v>772.6755268823257</v>
+        <v>773.1696485465676</v>
       </c>
       <c r="D18" t="n">
-        <v>623.7411172210744</v>
+        <v>624.2352388853163</v>
       </c>
       <c r="E18" t="n">
-        <v>464.5036622156189</v>
+        <v>464.9977838798608</v>
       </c>
       <c r="F18" t="n">
-        <v>317.9691042425039</v>
+        <v>318.4632259067458</v>
       </c>
       <c r="G18" t="n">
-        <v>181.6003706219898</v>
+        <v>182.0944922862317</v>
       </c>
       <c r="H18" t="n">
-        <v>91.04406896250069</v>
+        <v>91.53819062674259</v>
       </c>
       <c r="I18" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J18" t="n">
         <v>174.2497766665191</v>
@@ -5616,28 +5616,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R18" t="n">
-        <v>2570.62160712066</v>
+        <v>2571.115728784902</v>
       </c>
       <c r="S18" t="n">
-        <v>2441.079081693021</v>
+        <v>2441.573203357263</v>
       </c>
       <c r="T18" t="n">
-        <v>2248.413374601453</v>
+        <v>2248.907496265695</v>
       </c>
       <c r="U18" t="n">
-        <v>2020.345157113952</v>
+        <v>2020.839278778194</v>
       </c>
       <c r="V18" t="n">
-        <v>1785.193048882209</v>
+        <v>1785.687170546451</v>
       </c>
       <c r="W18" t="n">
-        <v>1530.955692154007</v>
+        <v>1531.449813818249</v>
       </c>
       <c r="X18" t="n">
-        <v>1323.104191948475</v>
+        <v>1323.598313612717</v>
       </c>
       <c r="Y18" t="n">
-        <v>1115.343893183521</v>
+        <v>1115.838014847763</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>772.7417171417396</v>
+        <v>772.7417171417395</v>
       </c>
       <c r="C19" t="n">
         <v>651.4687834231505</v>
@@ -5656,31 +5656,31 @@
         <v>549.0153932201326</v>
       </c>
       <c r="E19" t="n">
-        <v>448.7655488470574</v>
+        <v>448.7655488470573</v>
       </c>
       <c r="F19" t="n">
-        <v>349.5388505584649</v>
+        <v>349.5388505584648</v>
       </c>
       <c r="G19" t="n">
-        <v>229.4945402446356</v>
+        <v>229.4945402446355</v>
       </c>
       <c r="H19" t="n">
-        <v>130.8986118162376</v>
+        <v>130.8986118162375</v>
       </c>
       <c r="I19" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J19" t="n">
         <v>172.6042723289806</v>
       </c>
       <c r="K19" t="n">
-        <v>422.7684103924696</v>
+        <v>422.7684103924699</v>
       </c>
       <c r="L19" t="n">
-        <v>785.3547663901434</v>
+        <v>785.3547663901438</v>
       </c>
       <c r="M19" t="n">
-        <v>1175.500959512101</v>
+        <v>1175.500959512102</v>
       </c>
       <c r="N19" t="n">
         <v>1562.91573695857</v>
@@ -5692,7 +5692,7 @@
         <v>2187.06821582407</v>
       </c>
       <c r="Q19" t="n">
-        <v>2311.005654251532</v>
+        <v>2311.005654251533</v>
       </c>
       <c r="R19" t="n">
         <v>2268.626087556142</v>
@@ -5701,10 +5701,10 @@
         <v>2124.52114536311</v>
       </c>
       <c r="T19" t="n">
-        <v>1950.397599487434</v>
+        <v>1950.397599487435</v>
       </c>
       <c r="U19" t="n">
-        <v>1708.957724209785</v>
+        <v>1708.957724209786</v>
       </c>
       <c r="V19" t="n">
         <v>1501.936485213216</v>
@@ -5716,7 +5716,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.7269327626615</v>
+        <v>906.7269327626614</v>
       </c>
     </row>
     <row r="20">
@@ -5741,40 +5741,40 @@
         <v>698.5420634438185</v>
       </c>
       <c r="G20" t="n">
-        <v>331.1223336075041</v>
+        <v>331.122333607504</v>
       </c>
       <c r="H20" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="I20" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J20" t="n">
-        <v>269.0974411184163</v>
+        <v>436.5030901387693</v>
       </c>
       <c r="K20" t="n">
-        <v>922.5081112383593</v>
+        <v>769.0098018132592</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.913851183203</v>
+        <v>1218.415541758103</v>
       </c>
       <c r="M20" t="n">
-        <v>2309.70513281069</v>
+        <v>1867.653697686319</v>
       </c>
       <c r="N20" t="n">
-        <v>2854.642639648232</v>
+        <v>2412.591204523861</v>
       </c>
       <c r="O20" t="n">
-        <v>3355.876413499062</v>
+        <v>3290.817157824809</v>
       </c>
       <c r="P20" t="n">
-        <v>3749.166842168587</v>
+        <v>3684.107586494334</v>
       </c>
       <c r="Q20" t="n">
-        <v>3996.338828520943</v>
+        <v>3931.27957284669</v>
       </c>
       <c r="R20" t="n">
-        <v>4054.70767122175</v>
+        <v>4054.707671221749</v>
       </c>
       <c r="S20" t="n">
         <v>3991.840324862955</v>
@@ -5783,7 +5783,7 @@
         <v>3833.479736237765</v>
       </c>
       <c r="U20" t="n">
-        <v>3627.61166640967</v>
+        <v>3627.611666409669</v>
       </c>
       <c r="V20" t="n">
         <v>3344.212028275417</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>947.1285561634527</v>
+        <v>947.6226778276946</v>
       </c>
       <c r="C21" t="n">
-        <v>772.6755268823257</v>
+        <v>773.1696485465676</v>
       </c>
       <c r="D21" t="n">
-        <v>623.7411172210744</v>
+        <v>624.2352388853163</v>
       </c>
       <c r="E21" t="n">
-        <v>464.5036622156189</v>
+        <v>464.9977838798608</v>
       </c>
       <c r="F21" t="n">
-        <v>317.9691042425039</v>
+        <v>318.4632259067458</v>
       </c>
       <c r="G21" t="n">
-        <v>181.6003706219898</v>
+        <v>182.0944922862317</v>
       </c>
       <c r="H21" t="n">
-        <v>91.04406896250069</v>
+        <v>91.53819062674259</v>
       </c>
       <c r="I21" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J21" t="n">
         <v>174.2497766665191</v>
@@ -5853,28 +5853,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R21" t="n">
-        <v>2570.62160712066</v>
+        <v>2571.115728784902</v>
       </c>
       <c r="S21" t="n">
-        <v>2441.079081693021</v>
+        <v>2441.573203357263</v>
       </c>
       <c r="T21" t="n">
-        <v>2248.413374601453</v>
+        <v>2248.907496265695</v>
       </c>
       <c r="U21" t="n">
-        <v>2020.345157113952</v>
+        <v>2020.839278778194</v>
       </c>
       <c r="V21" t="n">
-        <v>1785.193048882209</v>
+        <v>1785.687170546451</v>
       </c>
       <c r="W21" t="n">
-        <v>1530.955692154007</v>
+        <v>1531.449813818249</v>
       </c>
       <c r="X21" t="n">
-        <v>1323.104191948475</v>
+        <v>1323.598313612717</v>
       </c>
       <c r="Y21" t="n">
-        <v>1115.343893183521</v>
+        <v>1115.838014847763</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>772.7417171417397</v>
+        <v>772.7417171417395</v>
       </c>
       <c r="C22" t="n">
-        <v>651.4687834231506</v>
+        <v>651.4687834231505</v>
       </c>
       <c r="D22" t="n">
-        <v>549.0153932201328</v>
+        <v>549.0153932201326</v>
       </c>
       <c r="E22" t="n">
-        <v>448.7655488470575</v>
+        <v>448.7655488470574</v>
       </c>
       <c r="F22" t="n">
-        <v>349.538850558465</v>
+        <v>349.5388505584649</v>
       </c>
       <c r="G22" t="n">
-        <v>229.4945402446357</v>
+        <v>229.4945402446356</v>
       </c>
       <c r="H22" t="n">
-        <v>130.8986118162377</v>
+        <v>130.8986118162376</v>
       </c>
       <c r="I22" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J22" t="n">
         <v>172.6042723289806</v>
       </c>
       <c r="K22" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924699</v>
       </c>
       <c r="L22" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901438</v>
       </c>
       <c r="M22" t="n">
         <v>1175.500959512102</v>
@@ -5953,7 +5953,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.7269327626616</v>
+        <v>906.7269327626614</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1710.592171810467</v>
       </c>
       <c r="D23" t="n">
-        <v>1399.989722413034</v>
+        <v>1399.989722413035</v>
       </c>
       <c r="E23" t="n">
         <v>1061.864719024108</v>
       </c>
       <c r="F23" t="n">
-        <v>698.5420634438178</v>
+        <v>698.5420634438187</v>
       </c>
       <c r="G23" t="n">
-        <v>331.1223336075041</v>
+        <v>331.122333607504</v>
       </c>
       <c r="H23" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="I23" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J23" t="n">
         <v>436.5030901387693</v>
       </c>
       <c r="K23" t="n">
-        <v>1089.913760258712</v>
+        <v>769.0098018132592</v>
       </c>
       <c r="L23" t="n">
-        <v>1539.319500203556</v>
+        <v>1218.415541758103</v>
       </c>
       <c r="M23" t="n">
-        <v>2071.039414552051</v>
+        <v>1750.135456106598</v>
       </c>
       <c r="N23" t="n">
-        <v>2854.642639648232</v>
+        <v>2295.07296294414</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.876413499062</v>
+        <v>3037.295692409294</v>
       </c>
       <c r="P23" t="n">
         <v>3749.166842168587</v>
@@ -6011,16 +6011,16 @@
         <v>3996.338828520943</v>
       </c>
       <c r="R23" t="n">
-        <v>4054.70767122175</v>
+        <v>4054.707671221749</v>
       </c>
       <c r="S23" t="n">
         <v>3991.840324862954</v>
       </c>
       <c r="T23" t="n">
-        <v>3833.479736237765</v>
+        <v>3833.479736237766</v>
       </c>
       <c r="U23" t="n">
-        <v>3627.611666409669</v>
+        <v>3627.61166640967</v>
       </c>
       <c r="V23" t="n">
         <v>3344.212028275417</v>
@@ -6063,7 +6063,7 @@
         <v>91.53819062674259</v>
       </c>
       <c r="I24" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J24" t="n">
         <v>174.2497766665191</v>
@@ -6124,55 +6124,55 @@
         <v>772.7417171417394</v>
       </c>
       <c r="C25" t="n">
-        <v>651.4687834231503</v>
+        <v>651.4687834231504</v>
       </c>
       <c r="D25" t="n">
-        <v>549.0153932201324</v>
+        <v>549.0153932201325</v>
       </c>
       <c r="E25" t="n">
-        <v>448.7655488470572</v>
+        <v>448.7655488470573</v>
       </c>
       <c r="F25" t="n">
-        <v>349.5388505584647</v>
+        <v>349.5388505584648</v>
       </c>
       <c r="G25" t="n">
-        <v>229.4945402446353</v>
+        <v>229.4945402446355</v>
       </c>
       <c r="H25" t="n">
-        <v>130.8986118162377</v>
+        <v>130.8986118162375</v>
       </c>
       <c r="I25" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J25" t="n">
         <v>172.6042723289806</v>
       </c>
       <c r="K25" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924699</v>
       </c>
       <c r="L25" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901436</v>
       </c>
       <c r="M25" t="n">
-        <v>1175.500959512101</v>
+        <v>1175.500959512102</v>
       </c>
       <c r="N25" t="n">
         <v>1562.91573695857</v>
       </c>
       <c r="O25" t="n">
-        <v>1908.30581073027</v>
+        <v>1908.305810730271</v>
       </c>
       <c r="P25" t="n">
-        <v>2187.068215824069</v>
+        <v>2187.06821582407</v>
       </c>
       <c r="Q25" t="n">
-        <v>2311.005654251532</v>
+        <v>2311.005654251533</v>
       </c>
       <c r="R25" t="n">
         <v>2268.626087556142</v>
       </c>
       <c r="S25" t="n">
-        <v>2124.521145363109</v>
+        <v>2124.52114536311</v>
       </c>
       <c r="T25" t="n">
         <v>1950.397599487434</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2031.89143954156</v>
+        <v>2031.891439541562</v>
       </c>
       <c r="C26" t="n">
-        <v>1710.592171810466</v>
+        <v>1710.592171810468</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.989722413034</v>
+        <v>1399.989722413035</v>
       </c>
       <c r="E26" t="n">
-        <v>1061.864719024108</v>
+        <v>1061.864719024109</v>
       </c>
       <c r="F26" t="n">
-        <v>698.5420634438186</v>
+        <v>698.5420634438187</v>
       </c>
       <c r="G26" t="n">
-        <v>331.122333607504</v>
+        <v>331.1223336075041</v>
       </c>
       <c r="H26" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="I26" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J26" t="n">
         <v>269.0974411184163</v>
@@ -6230,25 +6230,25 @@
         <v>601.6041527929062</v>
       </c>
       <c r="L26" t="n">
-        <v>1464.494495142696</v>
+        <v>1267.907564630038</v>
       </c>
       <c r="M26" t="n">
-        <v>1996.214409491191</v>
+        <v>2244.645877136437</v>
       </c>
       <c r="N26" t="n">
-        <v>2854.642639648231</v>
+        <v>2789.583383973979</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.876413499062</v>
+        <v>3290.817157824809</v>
       </c>
       <c r="P26" t="n">
-        <v>3749.166842168587</v>
+        <v>3684.107586494335</v>
       </c>
       <c r="Q26" t="n">
-        <v>3996.338828520943</v>
+        <v>3931.279572846691</v>
       </c>
       <c r="R26" t="n">
-        <v>4054.707671221749</v>
+        <v>4054.70767122175</v>
       </c>
       <c r="S26" t="n">
         <v>3991.840324862955</v>
@@ -6260,16 +6260,16 @@
         <v>3627.61166640967</v>
       </c>
       <c r="V26" t="n">
-        <v>3344.212028275417</v>
+        <v>3344.212028275418</v>
       </c>
       <c r="W26" t="n">
-        <v>3039.10662221462</v>
+        <v>3039.106622214621</v>
       </c>
       <c r="X26" t="n">
-        <v>2713.304113162858</v>
+        <v>2713.30411316286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2370.828030396364</v>
+        <v>2370.828030396366</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>91.53819062674259</v>
       </c>
       <c r="I27" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J27" t="n">
         <v>174.2497766665191</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>772.7417171417394</v>
+        <v>772.7417171417395</v>
       </c>
       <c r="C28" t="n">
-        <v>651.4687834231503</v>
+        <v>651.4687834231504</v>
       </c>
       <c r="D28" t="n">
-        <v>549.0153932201324</v>
+        <v>549.0153932201325</v>
       </c>
       <c r="E28" t="n">
-        <v>448.7655488470572</v>
+        <v>448.7655488470573</v>
       </c>
       <c r="F28" t="n">
         <v>349.5388505584647</v>
@@ -6379,7 +6379,7 @@
         <v>130.8986118162373</v>
       </c>
       <c r="I28" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J28" t="n">
         <v>172.6042723289806</v>
@@ -6388,10 +6388,10 @@
         <v>422.7684103924698</v>
       </c>
       <c r="L28" t="n">
-        <v>785.3547663901436</v>
+        <v>785.3547663901437</v>
       </c>
       <c r="M28" t="n">
-        <v>1175.500959512101</v>
+        <v>1175.500959512102</v>
       </c>
       <c r="N28" t="n">
         <v>1562.91573695857</v>
@@ -6403,13 +6403,13 @@
         <v>2187.06821582407</v>
       </c>
       <c r="Q28" t="n">
-        <v>2311.005654251532</v>
+        <v>2311.005654251533</v>
       </c>
       <c r="R28" t="n">
         <v>2268.626087556142</v>
       </c>
       <c r="S28" t="n">
-        <v>2124.521145363109</v>
+        <v>2124.52114536311</v>
       </c>
       <c r="T28" t="n">
         <v>1950.397599487434</v>
@@ -6427,7 +6427,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.7269327626612</v>
+        <v>906.7269327626614</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2031.891439541561</v>
+        <v>2031.891439541562</v>
       </c>
       <c r="C29" t="n">
-        <v>1710.592171810467</v>
+        <v>1710.592171810468</v>
       </c>
       <c r="D29" t="n">
         <v>1399.989722413035</v>
       </c>
       <c r="E29" t="n">
-        <v>1061.864719024108</v>
+        <v>1061.864719024109</v>
       </c>
       <c r="F29" t="n">
-        <v>698.5420634438186</v>
+        <v>698.5420634438187</v>
       </c>
       <c r="G29" t="n">
-        <v>331.122333607504</v>
+        <v>331.1223336075041</v>
       </c>
       <c r="H29" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="I29" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J29" t="n">
-        <v>269.0974411184163</v>
+        <v>436.5030901387693</v>
       </c>
       <c r="K29" t="n">
-        <v>601.6041527929062</v>
+        <v>769.0098018132592</v>
       </c>
       <c r="L29" t="n">
-        <v>1051.00989273775</v>
+        <v>1218.415541758103</v>
       </c>
       <c r="M29" t="n">
-        <v>1876.731677642825</v>
+        <v>1750.135456106598</v>
       </c>
       <c r="N29" t="n">
-        <v>2854.642639648231</v>
+        <v>2295.07296294414</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.876413499062</v>
+        <v>2796.30673679497</v>
       </c>
       <c r="P29" t="n">
-        <v>3749.166842168587</v>
+        <v>3508.177886554263</v>
       </c>
       <c r="Q29" t="n">
-        <v>3996.338828520943</v>
+        <v>3931.279572846691</v>
       </c>
       <c r="R29" t="n">
-        <v>4054.707671221749</v>
+        <v>4054.70767122175</v>
       </c>
       <c r="S29" t="n">
         <v>3991.840324862955</v>
@@ -6494,19 +6494,19 @@
         <v>3833.479736237766</v>
       </c>
       <c r="U29" t="n">
-        <v>3627.61166640967</v>
+        <v>3627.611666409671</v>
       </c>
       <c r="V29" t="n">
         <v>3344.212028275418</v>
       </c>
       <c r="W29" t="n">
-        <v>3039.106622214621</v>
+        <v>3039.106622214622</v>
       </c>
       <c r="X29" t="n">
-        <v>2713.304113162859</v>
+        <v>2713.30411316286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2370.828030396365</v>
+        <v>2370.828030396366</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>91.04406896250069</v>
       </c>
       <c r="I30" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J30" t="n">
         <v>174.2497766665191</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>772.7417171417396</v>
+        <v>772.7417171417394</v>
       </c>
       <c r="C31" t="n">
-        <v>651.4687834231505</v>
+        <v>651.4687834231503</v>
       </c>
       <c r="D31" t="n">
-        <v>549.0153932201326</v>
+        <v>549.0153932201324</v>
       </c>
       <c r="E31" t="n">
-        <v>448.7655488470574</v>
+        <v>448.7655488470572</v>
       </c>
       <c r="F31" t="n">
-        <v>349.5388505584649</v>
+        <v>349.5388505584647</v>
       </c>
       <c r="G31" t="n">
-        <v>229.4945402446356</v>
+        <v>229.4945402446353</v>
       </c>
       <c r="H31" t="n">
-        <v>130.8986118162376</v>
+        <v>130.8986118162373</v>
       </c>
       <c r="I31" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J31" t="n">
         <v>172.6042723289806</v>
       </c>
       <c r="K31" t="n">
-        <v>422.7684103924699</v>
+        <v>422.7684103924697</v>
       </c>
       <c r="L31" t="n">
-        <v>785.3547663901438</v>
+        <v>785.3547663901436</v>
       </c>
       <c r="M31" t="n">
         <v>1175.500959512102</v>
       </c>
       <c r="N31" t="n">
-        <v>1562.91573695857</v>
+        <v>1562.915736958571</v>
       </c>
       <c r="O31" t="n">
-        <v>1908.305810730271</v>
+        <v>1908.305810730272</v>
       </c>
       <c r="P31" t="n">
         <v>2187.06821582407</v>
@@ -6664,7 +6664,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.7269327626615</v>
+        <v>906.7269327626612</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2031.891439541563</v>
+        <v>2031.891439541562</v>
       </c>
       <c r="C32" t="n">
-        <v>1710.592171810469</v>
+        <v>1710.592171810468</v>
       </c>
       <c r="D32" t="n">
-        <v>1399.989722413036</v>
+        <v>1399.989722413035</v>
       </c>
       <c r="E32" t="n">
-        <v>1061.86471902411</v>
+        <v>1061.864719024109</v>
       </c>
       <c r="F32" t="n">
-        <v>698.5420634438203</v>
+        <v>698.5420634438192</v>
       </c>
       <c r="G32" t="n">
-        <v>331.122333607504</v>
+        <v>331.1223336075041</v>
       </c>
       <c r="H32" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="I32" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J32" t="n">
         <v>269.0974411184163</v>
@@ -6710,22 +6710,22 @@
         <v>1582.729807086245</v>
       </c>
       <c r="N32" t="n">
-        <v>2477.650460198115</v>
+        <v>2560.640769091651</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.876413499063</v>
+        <v>3290.817157824809</v>
       </c>
       <c r="P32" t="n">
-        <v>3749.166842168588</v>
+        <v>3684.107586494335</v>
       </c>
       <c r="Q32" t="n">
-        <v>3996.338828520944</v>
+        <v>3931.279572846691</v>
       </c>
       <c r="R32" t="n">
-        <v>4054.707671221751</v>
+        <v>4054.70767122175</v>
       </c>
       <c r="S32" t="n">
-        <v>3991.840324862956</v>
+        <v>3991.840324862955</v>
       </c>
       <c r="T32" t="n">
         <v>3833.479736237767</v>
@@ -6743,7 +6743,7 @@
         <v>2713.30411316286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2370.828030396367</v>
+        <v>2370.828030396366</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.1285561634527</v>
+        <v>947.6226778276946</v>
       </c>
       <c r="C33" t="n">
-        <v>772.6755268823257</v>
+        <v>773.1696485465676</v>
       </c>
       <c r="D33" t="n">
-        <v>623.7411172210744</v>
+        <v>624.2352388853163</v>
       </c>
       <c r="E33" t="n">
-        <v>464.5036622156189</v>
+        <v>464.9977838798608</v>
       </c>
       <c r="F33" t="n">
-        <v>317.9691042425039</v>
+        <v>318.4632259067458</v>
       </c>
       <c r="G33" t="n">
-        <v>181.6003706219898</v>
+        <v>182.0944922862317</v>
       </c>
       <c r="H33" t="n">
-        <v>91.04406896250069</v>
+        <v>91.53819062674259</v>
       </c>
       <c r="I33" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J33" t="n">
         <v>174.2497766665191</v>
@@ -6801,28 +6801,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R33" t="n">
-        <v>2570.62160712066</v>
+        <v>2571.115728784902</v>
       </c>
       <c r="S33" t="n">
-        <v>2441.079081693021</v>
+        <v>2441.573203357263</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.413374601453</v>
+        <v>2248.907496265695</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.345157113952</v>
+        <v>2020.839278778194</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.193048882209</v>
+        <v>1785.687170546451</v>
       </c>
       <c r="W33" t="n">
-        <v>1530.955692154007</v>
+        <v>1531.449813818249</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.104191948475</v>
+        <v>1323.598313612717</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.343893183521</v>
+        <v>1115.838014847763</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>772.7417171417393</v>
+        <v>772.7417171417395</v>
       </c>
       <c r="C34" t="n">
-        <v>651.4687834231503</v>
+        <v>651.4687834231504</v>
       </c>
       <c r="D34" t="n">
-        <v>549.0153932201324</v>
+        <v>549.0153932201325</v>
       </c>
       <c r="E34" t="n">
-        <v>448.7655488470572</v>
+        <v>448.7655488470573</v>
       </c>
       <c r="F34" t="n">
-        <v>349.5388505584647</v>
+        <v>349.5388505584648</v>
       </c>
       <c r="G34" t="n">
-        <v>229.4945402446353</v>
+        <v>229.4945402446355</v>
       </c>
       <c r="H34" t="n">
-        <v>130.8986118162376</v>
+        <v>130.8986118162374</v>
       </c>
       <c r="I34" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J34" t="n">
         <v>172.6042723289806</v>
       </c>
       <c r="K34" t="n">
-        <v>422.7684103924699</v>
+        <v>422.7684103924698</v>
       </c>
       <c r="L34" t="n">
-        <v>785.3547663901438</v>
+        <v>785.3547663901437</v>
       </c>
       <c r="M34" t="n">
-        <v>1175.500959512102</v>
+        <v>1175.500959512101</v>
       </c>
       <c r="N34" t="n">
         <v>1562.91573695857</v>
@@ -6874,16 +6874,16 @@
         <v>1908.305810730271</v>
       </c>
       <c r="P34" t="n">
-        <v>2187.06821582407</v>
+        <v>2187.068215824069</v>
       </c>
       <c r="Q34" t="n">
-        <v>2311.005654251533</v>
+        <v>2311.005654251532</v>
       </c>
       <c r="R34" t="n">
         <v>2268.626087556142</v>
       </c>
       <c r="S34" t="n">
-        <v>2124.52114536311</v>
+        <v>2124.521145363109</v>
       </c>
       <c r="T34" t="n">
         <v>1950.397599487434</v>
@@ -6898,10 +6898,10 @@
         <v>1260.182564385573</v>
       </c>
       <c r="X34" t="n">
-        <v>1079.856262696873</v>
+        <v>1079.856262696874</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.7269327626611</v>
+        <v>906.7269327626614</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2031.891439541563</v>
+        <v>2031.891439541562</v>
       </c>
       <c r="C35" t="n">
-        <v>1710.592171810469</v>
+        <v>1710.592171810468</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.989722413036</v>
+        <v>1399.989722413035</v>
       </c>
       <c r="E35" t="n">
-        <v>1061.86471902411</v>
+        <v>1061.864719024109</v>
       </c>
       <c r="F35" t="n">
-        <v>698.5420634438203</v>
+        <v>698.5420634438192</v>
       </c>
       <c r="G35" t="n">
-        <v>331.122333607504</v>
+        <v>331.1223336075041</v>
       </c>
       <c r="H35" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="I35" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J35" t="n">
-        <v>436.5030901387693</v>
+        <v>269.0974411184163</v>
       </c>
       <c r="K35" t="n">
-        <v>769.0098018132593</v>
+        <v>601.6041527929062</v>
       </c>
       <c r="L35" t="n">
-        <v>1218.415541758103</v>
+        <v>1400.993039012077</v>
       </c>
       <c r="M35" t="n">
-        <v>1991.124411720923</v>
+        <v>1932.712953360572</v>
       </c>
       <c r="N35" t="n">
-        <v>2536.061918558465</v>
+        <v>2477.650460198114</v>
       </c>
       <c r="O35" t="n">
-        <v>3037.295692409295</v>
+        <v>3355.876413499062</v>
       </c>
       <c r="P35" t="n">
-        <v>3749.166842168588</v>
+        <v>3749.166842168587</v>
       </c>
       <c r="Q35" t="n">
-        <v>3996.338828520944</v>
+        <v>3996.338828520943</v>
       </c>
       <c r="R35" t="n">
-        <v>4054.707671221751</v>
+        <v>4054.70767122175</v>
       </c>
       <c r="S35" t="n">
-        <v>3991.840324862956</v>
+        <v>3991.840324862955</v>
       </c>
       <c r="T35" t="n">
         <v>3833.479736237767</v>
@@ -6971,7 +6971,7 @@
         <v>3627.611666409671</v>
       </c>
       <c r="V35" t="n">
-        <v>3344.212028275419</v>
+        <v>3344.212028275418</v>
       </c>
       <c r="W35" t="n">
         <v>3039.106622214622</v>
@@ -6980,7 +6980,7 @@
         <v>2713.30411316286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2370.828030396367</v>
+        <v>2370.828030396366</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>947.1285561634527</v>
+        <v>947.6226778276946</v>
       </c>
       <c r="C36" t="n">
-        <v>772.6755268823257</v>
+        <v>773.1696485465676</v>
       </c>
       <c r="D36" t="n">
-        <v>623.7411172210744</v>
+        <v>624.2352388853163</v>
       </c>
       <c r="E36" t="n">
-        <v>464.5036622156189</v>
+        <v>464.9977838798608</v>
       </c>
       <c r="F36" t="n">
-        <v>317.9691042425039</v>
+        <v>318.4632259067458</v>
       </c>
       <c r="G36" t="n">
-        <v>181.6003706219898</v>
+        <v>182.0944922862317</v>
       </c>
       <c r="H36" t="n">
-        <v>91.04406896250069</v>
+        <v>91.53819062674259</v>
       </c>
       <c r="I36" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J36" t="n">
         <v>174.2497766665191</v>
@@ -7038,28 +7038,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R36" t="n">
-        <v>2570.62160712066</v>
+        <v>2571.115728784902</v>
       </c>
       <c r="S36" t="n">
-        <v>2441.079081693021</v>
+        <v>2441.573203357263</v>
       </c>
       <c r="T36" t="n">
-        <v>2248.413374601453</v>
+        <v>2248.907496265695</v>
       </c>
       <c r="U36" t="n">
-        <v>2020.345157113952</v>
+        <v>2020.839278778194</v>
       </c>
       <c r="V36" t="n">
-        <v>1785.193048882209</v>
+        <v>1785.687170546451</v>
       </c>
       <c r="W36" t="n">
-        <v>1530.955692154007</v>
+        <v>1531.449813818249</v>
       </c>
       <c r="X36" t="n">
-        <v>1323.104191948475</v>
+        <v>1323.598313612717</v>
       </c>
       <c r="Y36" t="n">
-        <v>1115.343893183521</v>
+        <v>1115.838014847763</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>772.7417171417396</v>
+        <v>772.7417171417397</v>
       </c>
       <c r="C37" t="n">
         <v>651.4687834231506</v>
@@ -7084,28 +7084,28 @@
         <v>349.538850558465</v>
       </c>
       <c r="G37" t="n">
-        <v>229.4945402446356</v>
+        <v>229.4945402446357</v>
       </c>
       <c r="H37" t="n">
-        <v>130.8986118162376</v>
+        <v>130.8986118162377</v>
       </c>
       <c r="I37" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J37" t="n">
         <v>172.6042723289806</v>
       </c>
       <c r="K37" t="n">
-        <v>422.7684103924702</v>
+        <v>422.7684103924698</v>
       </c>
       <c r="L37" t="n">
-        <v>785.3547663901441</v>
+        <v>785.3547663901437</v>
       </c>
       <c r="M37" t="n">
         <v>1175.500959512102</v>
       </c>
       <c r="N37" t="n">
-        <v>1562.915736958571</v>
+        <v>1562.91573695857</v>
       </c>
       <c r="O37" t="n">
         <v>1908.305810730271</v>
@@ -7138,7 +7138,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.7269327626615</v>
+        <v>906.7269327626616</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1061.864719024109</v>
       </c>
       <c r="F38" t="n">
-        <v>698.5420634438194</v>
+        <v>698.5420634438192</v>
       </c>
       <c r="G38" t="n">
-        <v>331.122333607504</v>
+        <v>331.1223336075041</v>
       </c>
       <c r="H38" t="n">
         <v>81.09415342443501</v>
@@ -7172,25 +7172,25 @@
         <v>81.09415342443501</v>
       </c>
       <c r="J38" t="n">
-        <v>269.0974411184163</v>
+        <v>436.5030901387693</v>
       </c>
       <c r="K38" t="n">
-        <v>601.6041527929062</v>
+        <v>769.0098018132592</v>
       </c>
       <c r="L38" t="n">
-        <v>1051.00989273775</v>
+        <v>1218.415541758103</v>
       </c>
       <c r="M38" t="n">
-        <v>2027.748205244149</v>
+        <v>1750.135456106598</v>
       </c>
       <c r="N38" t="n">
-        <v>2789.583383973979</v>
+        <v>2579.391543220674</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.81715782481</v>
+        <v>3080.625317071504</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.107586494335</v>
+        <v>3473.915745741029</v>
       </c>
       <c r="Q38" t="n">
         <v>3931.279572846691</v>
@@ -7205,19 +7205,19 @@
         <v>3833.479736237767</v>
       </c>
       <c r="U38" t="n">
-        <v>3627.611666409671</v>
+        <v>3627.611666409672</v>
       </c>
       <c r="V38" t="n">
-        <v>3344.212028275418</v>
+        <v>3344.212028275419</v>
       </c>
       <c r="W38" t="n">
-        <v>3039.106622214622</v>
+        <v>3039.106622214623</v>
       </c>
       <c r="X38" t="n">
-        <v>2713.30411316286</v>
+        <v>2713.304113162861</v>
       </c>
       <c r="Y38" t="n">
-        <v>2370.828030396366</v>
+        <v>2370.828030396367</v>
       </c>
     </row>
     <row r="39">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>772.7417171417394</v>
+        <v>772.7417171417392</v>
       </c>
       <c r="C40" t="n">
-        <v>651.4687834231504</v>
+        <v>651.4687834231501</v>
       </c>
       <c r="D40" t="n">
-        <v>549.0153932201325</v>
+        <v>549.0153932201322</v>
       </c>
       <c r="E40" t="n">
-        <v>448.7655488470573</v>
+        <v>448.7655488470569</v>
       </c>
       <c r="F40" t="n">
-        <v>349.5388505584648</v>
+        <v>349.5388505584644</v>
       </c>
       <c r="G40" t="n">
-        <v>229.4945402446355</v>
+        <v>229.4945402446351</v>
       </c>
       <c r="H40" t="n">
-        <v>130.8986118162375</v>
+        <v>130.8986118162371</v>
       </c>
       <c r="I40" t="n">
         <v>81.09415342443501</v>
       </c>
       <c r="J40" t="n">
-        <v>172.6042723289804</v>
+        <v>172.6042723289806</v>
       </c>
       <c r="K40" t="n">
-        <v>422.7684103924697</v>
+        <v>422.7684103924698</v>
       </c>
       <c r="L40" t="n">
-        <v>785.3547663901436</v>
+        <v>785.3547663901437</v>
       </c>
       <c r="M40" t="n">
         <v>1175.500959512101</v>
@@ -7354,7 +7354,7 @@
         <v>2311.005654251532</v>
       </c>
       <c r="R40" t="n">
-        <v>2268.626087556142</v>
+        <v>2268.626087556141</v>
       </c>
       <c r="S40" t="n">
         <v>2124.521145363109</v>
@@ -7363,19 +7363,19 @@
         <v>1950.397599487434</v>
       </c>
       <c r="U40" t="n">
-        <v>1708.957724209785</v>
+        <v>1708.957724209784</v>
       </c>
       <c r="V40" t="n">
-        <v>1501.936485213216</v>
+        <v>1501.936485213215</v>
       </c>
       <c r="W40" t="n">
         <v>1260.182564385573</v>
       </c>
       <c r="X40" t="n">
-        <v>1079.856262696874</v>
+        <v>1079.856262696873</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.7269327626612</v>
+        <v>906.726932762661</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7409,25 @@
         <v>81.09415342443499</v>
       </c>
       <c r="J41" t="n">
-        <v>269.0974411184163</v>
+        <v>436.5030901387693</v>
       </c>
       <c r="K41" t="n">
-        <v>601.6041527929062</v>
+        <v>850.0356204381518</v>
       </c>
       <c r="L41" t="n">
-        <v>1051.00989273775</v>
+        <v>1712.925962787941</v>
       </c>
       <c r="M41" t="n">
-        <v>1582.729807086245</v>
+        <v>2244.645877136436</v>
       </c>
       <c r="N41" t="n">
-        <v>2560.640769091651</v>
+        <v>2789.583383973978</v>
       </c>
       <c r="O41" t="n">
-        <v>3080.625317071503</v>
+        <v>3290.817157824809</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.915745741028</v>
+        <v>3684.107586494334</v>
       </c>
       <c r="Q41" t="n">
         <v>3931.27957284669</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>947.6226778276946</v>
+        <v>947.1285561634527</v>
       </c>
       <c r="C42" t="n">
-        <v>773.1696485465676</v>
+        <v>772.6755268823257</v>
       </c>
       <c r="D42" t="n">
-        <v>624.2352388853163</v>
+        <v>623.7411172210744</v>
       </c>
       <c r="E42" t="n">
-        <v>464.9977838798608</v>
+        <v>464.5036622156189</v>
       </c>
       <c r="F42" t="n">
-        <v>318.4632259067458</v>
+        <v>317.9691042425039</v>
       </c>
       <c r="G42" t="n">
-        <v>182.0944922862317</v>
+        <v>181.6003706219898</v>
       </c>
       <c r="H42" t="n">
-        <v>91.53819062674259</v>
+        <v>91.04406896250069</v>
       </c>
       <c r="I42" t="n">
         <v>81.09415342443499</v>
@@ -7512,28 +7512,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R42" t="n">
-        <v>2571.115728784902</v>
+        <v>2570.62160712066</v>
       </c>
       <c r="S42" t="n">
-        <v>2441.573203357263</v>
+        <v>2441.079081693021</v>
       </c>
       <c r="T42" t="n">
-        <v>2248.907496265695</v>
+        <v>2248.413374601453</v>
       </c>
       <c r="U42" t="n">
-        <v>2020.839278778194</v>
+        <v>2020.345157113952</v>
       </c>
       <c r="V42" t="n">
-        <v>1785.687170546451</v>
+        <v>1785.193048882209</v>
       </c>
       <c r="W42" t="n">
-        <v>1531.449813818249</v>
+        <v>1530.955692154007</v>
       </c>
       <c r="X42" t="n">
-        <v>1323.598313612717</v>
+        <v>1323.104191948475</v>
       </c>
       <c r="Y42" t="n">
-        <v>1115.838014847763</v>
+        <v>1115.343893183521</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>772.7417171417397</v>
+        <v>772.7417171417396</v>
       </c>
       <c r="C43" t="n">
-        <v>651.4687834231507</v>
+        <v>651.4687834231506</v>
       </c>
       <c r="D43" t="n">
-        <v>549.0153932201329</v>
+        <v>549.0153932201328</v>
       </c>
       <c r="E43" t="n">
-        <v>448.7655488470576</v>
+        <v>448.7655488470575</v>
       </c>
       <c r="F43" t="n">
-        <v>349.5388505584651</v>
+        <v>349.538850558465</v>
       </c>
       <c r="G43" t="n">
-        <v>229.4945402446355</v>
+        <v>229.4945402446356</v>
       </c>
       <c r="H43" t="n">
         <v>130.8986118162376</v>
@@ -7567,13 +7567,13 @@
         <v>81.09415342443499</v>
       </c>
       <c r="J43" t="n">
-        <v>172.6042723289805</v>
+        <v>172.6042723289806</v>
       </c>
       <c r="K43" t="n">
         <v>422.7684103924698</v>
       </c>
       <c r="L43" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901436</v>
       </c>
       <c r="M43" t="n">
         <v>1175.500959512101</v>
@@ -7588,13 +7588,13 @@
         <v>2187.06821582407</v>
       </c>
       <c r="Q43" t="n">
-        <v>2311.005654251532</v>
+        <v>2311.005654251533</v>
       </c>
       <c r="R43" t="n">
         <v>2268.626087556142</v>
       </c>
       <c r="S43" t="n">
-        <v>2124.521145363109</v>
+        <v>2124.52114536311</v>
       </c>
       <c r="T43" t="n">
         <v>1950.397599487434</v>
@@ -7612,7 +7612,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.7269327626616</v>
+        <v>906.7269327626615</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1061.864719024108</v>
       </c>
       <c r="F44" t="n">
-        <v>698.5420634438183</v>
+        <v>698.5420634438181</v>
       </c>
       <c r="G44" t="n">
         <v>331.122333607504</v>
       </c>
       <c r="H44" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="I44" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J44" t="n">
-        <v>269.0974411184163</v>
+        <v>436.5030901387693</v>
       </c>
       <c r="K44" t="n">
-        <v>601.6041527929062</v>
+        <v>830.5467676752332</v>
       </c>
       <c r="L44" t="n">
-        <v>1464.494495142696</v>
+        <v>1279.952507620077</v>
       </c>
       <c r="M44" t="n">
-        <v>2309.70513281069</v>
+        <v>1811.672421968572</v>
       </c>
       <c r="N44" t="n">
-        <v>2854.642639648232</v>
+        <v>2789.583383973978</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.876413499063</v>
+        <v>3290.817157824809</v>
       </c>
       <c r="P44" t="n">
-        <v>3749.166842168588</v>
+        <v>3684.107586494334</v>
       </c>
       <c r="Q44" t="n">
-        <v>3996.338828520944</v>
+        <v>3931.27957284669</v>
       </c>
       <c r="R44" t="n">
-        <v>4054.707671221751</v>
+        <v>4054.707671221749</v>
       </c>
       <c r="S44" t="n">
         <v>3991.840324862955</v>
@@ -7722,7 +7722,7 @@
         <v>91.04406896250069</v>
       </c>
       <c r="I45" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J45" t="n">
         <v>174.2497766665191</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>772.7417171417395</v>
+        <v>772.7417171417396</v>
       </c>
       <c r="C46" t="n">
-        <v>651.4687834231505</v>
+        <v>651.4687834231506</v>
       </c>
       <c r="D46" t="n">
-        <v>549.0153932201326</v>
+        <v>549.0153932201328</v>
       </c>
       <c r="E46" t="n">
         <v>448.7655488470575</v>
@@ -7801,16 +7801,16 @@
         <v>130.8986118162376</v>
       </c>
       <c r="I46" t="n">
-        <v>81.09415342443502</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J46" t="n">
         <v>172.6042723289806</v>
       </c>
       <c r="K46" t="n">
-        <v>422.7684103924697</v>
+        <v>422.7684103924698</v>
       </c>
       <c r="L46" t="n">
-        <v>785.3547663901436</v>
+        <v>785.3547663901437</v>
       </c>
       <c r="M46" t="n">
         <v>1175.500959512101</v>
@@ -7849,7 +7849,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.7269327626614</v>
+        <v>906.7269327626615</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
         <v>242.6424607116987</v>
       </c>
       <c r="M8" t="n">
-        <v>237.2222789689842</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
-        <v>236.0112893083342</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8544,13 +8544,13 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>140.5726331260735</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>106.1085586285979</v>
+        <v>106.1085586286012</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4.632737432917935</v>
+        <v>4.632737432918077</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>410.1730982616071</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>316.6572962823218</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.158821514781808</v>
+        <v>8.66964106718231</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>284.80497733994</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>284.8049773399396</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.158821514781808</v>
+        <v>8.66964106718231</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>410.1730982616076</v>
+        <v>118.7052945249703</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.158821514781808</v>
+        <v>8.66964106718231</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>241.076483089534</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>243.4231874892156</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>8.669641067182324</v>
+        <v>8.66964106718231</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>219.0885574669575</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>316.6572962823213</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.66964106718231</v>
+        <v>8.669641067182324</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>296.9715864207876</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>177.7067676162335</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.158821514781794</v>
+        <v>9.158821514781808</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>353.518329570028</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>231.2551665478057</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.158821514781822</v>
+        <v>8.669641067182324</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>353.518329570027</v>
       </c>
       <c r="M35" t="n">
-        <v>243.4231874892168</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.158821514781822</v>
+        <v>8.669641067182324</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>219.0885574669577</v>
+        <v>287.1904851278119</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>81.84426123726524</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>18.94017588790052</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>8.66964106718231</v>
+        <v>9.158821514781794</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>62.15855137573135</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>316.6572962823228</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.158821514781822</v>
+        <v>9.158821514781794</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>111.7819809641927</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>112.2676046942302</v>
       </c>
       <c r="T11" t="n">
-        <v>204.5096108339154</v>
+        <v>204.5096108339153</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0059843530867</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.26948288889305</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.17560498787304</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>91.65811123200643</v>
+        <v>91.65811123200652</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.8079869882842</v>
+        <v>41.82930310809158</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2151450700229</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>129.6760503364335</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>149.386851545912</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>101.9659929643008</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.97878567833996</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>31.71626321881675</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7965858613387</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.14238774566138</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.568927134143</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>11.1318844286919</v>
       </c>
     </row>
     <row r="17">
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1092519.656382071</v>
+        <v>1092519.656382069</v>
       </c>
     </row>
     <row r="6">
@@ -26320,10 +26320,10 @@
         <v>102546.3756498899</v>
       </c>
       <c r="E2" t="n">
-        <v>83358.68461633001</v>
+        <v>83358.68461632996</v>
       </c>
       <c r="F2" t="n">
-        <v>92264.53653133051</v>
+        <v>92264.53653133048</v>
       </c>
       <c r="G2" t="n">
         <v>102630.2212330354</v>
@@ -26344,13 +26344,13 @@
         <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26372,10 +26372,10 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>1082403.580944328</v>
+        <v>1082403.580944326</v>
       </c>
       <c r="F3" t="n">
-        <v>88556.39574539021</v>
+        <v>88556.39574539146</v>
       </c>
       <c r="G3" t="n">
         <v>37749.29337377973</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39489.55866659531</v>
+        <v>39489.55866659523</v>
       </c>
       <c r="M3" t="n">
-        <v>195208.0047236268</v>
+        <v>195208.0047236264</v>
       </c>
       <c r="N3" t="n">
-        <v>54734.99832329949</v>
+        <v>54734.99832329985</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>408996.6277656587</v>
       </c>
       <c r="E4" t="n">
-        <v>9456.00991014781</v>
+        <v>9456.009910147852</v>
       </c>
       <c r="F4" t="n">
-        <v>25678.05866899654</v>
+        <v>25678.05866899653</v>
       </c>
       <c r="G4" t="n">
-        <v>73125.68471511376</v>
+        <v>73125.68471511379</v>
       </c>
       <c r="H4" t="n">
         <v>73125.68471511378</v>
@@ -26439,25 +26439,25 @@
         <v>73125.68471511378</v>
       </c>
       <c r="J4" t="n">
+        <v>73125.68471511376</v>
+      </c>
+      <c r="K4" t="n">
+        <v>73125.68471511376</v>
+      </c>
+      <c r="L4" t="n">
         <v>73125.68471511378</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>73125.68471511378</v>
       </c>
-      <c r="L4" t="n">
-        <v>73125.68471511381</v>
-      </c>
-      <c r="M4" t="n">
-        <v>73125.68471511381</v>
-      </c>
       <c r="N4" t="n">
-        <v>73125.68471511379</v>
+        <v>73125.68471511378</v>
       </c>
       <c r="O4" t="n">
-        <v>73125.68471511378</v>
+        <v>73125.68471511376</v>
       </c>
       <c r="P4" t="n">
-        <v>73125.68471511381</v>
+        <v>73125.68471511376</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>71068.51293280716</v>
+        <v>71068.51293280706</v>
       </c>
       <c r="F5" t="n">
         <v>85332.16408926278</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340615.0859967567</v>
+        <v>-340619.4995746249</v>
       </c>
       <c r="C6" t="n">
-        <v>-340615.0859967567</v>
+        <v>-340619.4995746249</v>
       </c>
       <c r="D6" t="n">
-        <v>-342631.8217856127</v>
+        <v>-342633.4986972756</v>
       </c>
       <c r="E6" t="n">
-        <v>-1079569.419170953</v>
+        <v>-1079954.849903285</v>
       </c>
       <c r="F6" t="n">
-        <v>-107302.081972319</v>
+        <v>-107509.3956663544</v>
       </c>
       <c r="G6" t="n">
-        <v>-97543.85262592119</v>
+        <v>-97543.85262592124</v>
       </c>
       <c r="H6" t="n">
-        <v>-59794.55925214139</v>
+        <v>-59794.55925214142</v>
       </c>
       <c r="I6" t="n">
         <v>-59794.55925214151</v>
       </c>
       <c r="J6" t="n">
-        <v>-59794.55925214149</v>
+        <v>-59794.55925214148</v>
       </c>
       <c r="K6" t="n">
-        <v>-59794.55925214151</v>
+        <v>-59794.55925214147</v>
       </c>
       <c r="L6" t="n">
-        <v>-99284.11791873685</v>
+        <v>-99284.11791873674</v>
       </c>
       <c r="M6" t="n">
-        <v>-255002.5639757683</v>
+        <v>-255002.5639757678</v>
       </c>
       <c r="N6" t="n">
-        <v>-114529.557575441</v>
+        <v>-114529.5575754413</v>
       </c>
       <c r="O6" t="n">
-        <v>-59794.55925214151</v>
+        <v>-59794.55925214141</v>
       </c>
       <c r="P6" t="n">
-        <v>-59794.55925214145</v>
+        <v>-59794.55925214142</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.401831919443647e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.401831919443647e-14</v>
       </c>
       <c r="G2" t="n">
+        <v>47.18661671722469</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47.18661671722469</v>
+      </c>
+      <c r="I2" t="n">
+        <v>47.18661671722469</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47.18661671722465</v>
+      </c>
+      <c r="K2" t="n">
+        <v>47.18661671722465</v>
+      </c>
+      <c r="L2" t="n">
+        <v>47.18661671722467</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47.18661671722467</v>
+      </c>
+      <c r="N2" t="n">
         <v>47.18661671722466</v>
       </c>
-      <c r="H2" t="n">
-        <v>47.18661671722467</v>
-      </c>
-      <c r="I2" t="n">
-        <v>47.18661671722467</v>
-      </c>
-      <c r="J2" t="n">
-        <v>47.18661671722467</v>
-      </c>
-      <c r="K2" t="n">
-        <v>47.18661671722467</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>47.18661671722468</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>47.18661671722468</v>
-      </c>
-      <c r="N2" t="n">
-        <v>47.18661671722468</v>
-      </c>
-      <c r="O2" t="n">
-        <v>47.18661671722469</v>
-      </c>
-      <c r="P2" t="n">
-        <v>47.18661671722469</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1056.156912425182</v>
+        <v>1056.156912425181</v>
       </c>
       <c r="F3" t="n">
         <v>1087.183829664779</v>
@@ -26796,7 +26796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>790.2021750318784</v>
+        <v>790.202175031877</v>
       </c>
       <c r="F4" t="n">
         <v>1013.676917805437</v>
@@ -26817,10 +26817,10 @@
         <v>1013.676917805437</v>
       </c>
       <c r="L4" t="n">
-        <v>1013.676917805438</v>
+        <v>1013.676917805437</v>
       </c>
       <c r="M4" t="n">
-        <v>1013.676917805438</v>
+        <v>1013.676917805437</v>
       </c>
       <c r="N4" t="n">
         <v>1013.676917805438</v>
@@ -26829,7 +26829,7 @@
         <v>1013.676917805437</v>
       </c>
       <c r="P4" t="n">
-        <v>1013.676917805438</v>
+        <v>1013.676917805437</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.401831919443647e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1056.156912425182</v>
+        <v>1056.156912425181</v>
       </c>
       <c r="F3" t="n">
-        <v>31.0269172395972</v>
+        <v>31.02691723959833</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>783.3261292901669</v>
+        <v>783.3261292901656</v>
       </c>
       <c r="F4" t="n">
-        <v>223.4747427735591</v>
+        <v>223.4747427735604</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711778</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>783.3261292901669</v>
+        <v>783.3261292901656</v>
       </c>
       <c r="N4" t="n">
-        <v>223.474742773559</v>
+        <v>223.4747427735605</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.401831919443647e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>783.3261292901669</v>
+        <v>783.3261292901656</v>
       </c>
       <c r="N4" t="n">
-        <v>223.4747427735591</v>
+        <v>223.4747427735604</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>203.5998438286945</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27898,7 +27898,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>143.8126968518503</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>343.1845476281136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>362.8550549367576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27938,22 +27938,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>139.7593826303423</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>130.4674714214992</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27992,10 +27992,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>245.6385620716202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1707514181402</v>
       </c>
       <c r="I10" t="n">
-        <v>148.5744291855468</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28053,10 +28053,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="C17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="D17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="E17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="F17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="G17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="H17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="I17" t="n">
         <v>41.97878567833999</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="T17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="U17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="V17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="W17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="X17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="C19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="D19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="E19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="F19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="G19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="H19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="I19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="J19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="K19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="L19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="M19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="N19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="O19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="P19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="R19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="S19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="T19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="U19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="V19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="W19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="X19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.18661671722466</v>
+        <v>47.18661671722469</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="C20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="D20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="E20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="F20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="G20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="H20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="I20" t="n">
         <v>41.97878567833999</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="T20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="U20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="V20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="W20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="X20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="C22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="D22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="E22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="F22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="G22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="H22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="I22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="J22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="K22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="L22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="M22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="N22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722441</v>
       </c>
       <c r="O22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="P22" t="n">
-        <v>47.18661671722481</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="R22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="S22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="T22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="U22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="V22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="W22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="X22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="C23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="D23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="E23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="F23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="G23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="H23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="I23" t="n">
         <v>41.97878567833999</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="T23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="U23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="V23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="W23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="X23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="C25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="D25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="E25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="F25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="G25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="H25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="I25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="J25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="K25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="L25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="M25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="N25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="O25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="P25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="R25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="S25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="T25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="U25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="V25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="W25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="X25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="C26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="D26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="E26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="F26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="G26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="H26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="I26" t="n">
         <v>41.97878567833999</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="T26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="U26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="V26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="W26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="X26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="C28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="D28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="E28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="F28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="G28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="H28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="I28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="J28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="K28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="L28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="M28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="N28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="O28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="P28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="R28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="S28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="T28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="U28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="V28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="W28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="X28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="C29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="D29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="E29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="F29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="G29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="H29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="I29" t="n">
         <v>41.97878567833999</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="T29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="U29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="V29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="W29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="X29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="C31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="D31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="E31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="F31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="G31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="H31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="I31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="J31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="K31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="L31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="M31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="N31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="O31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="P31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="R31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="S31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="T31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="U31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="V31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="W31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="X31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722465</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="C32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="D32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="E32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="F32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="G32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="H32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="I32" t="n">
         <v>41.97878567833999</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="T32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="U32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="V32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="W32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="X32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="C34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="D34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="E34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="F34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="G34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="H34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="I34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="J34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="K34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="L34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="M34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="N34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="O34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="P34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="R34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="S34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="T34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="U34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="V34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="W34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="X34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="C35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="D35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="E35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="F35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="G35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="H35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="I35" t="n">
         <v>41.97878567833999</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="T35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="U35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="V35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="W35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="X35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="C37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="D37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="E37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="F37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="G37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="H37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="I37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="J37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="K37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="L37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="M37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="N37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="O37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722452</v>
       </c>
       <c r="P37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="R37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="S37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="T37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="U37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="V37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="W37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="X37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722467</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="C38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="D38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="E38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="F38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="G38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="H38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="I38" t="n">
         <v>41.97878567833999</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="T38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="U38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="V38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="W38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="X38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="C40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="D40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="E40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="F40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="G40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="H40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="I40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="J40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="K40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="L40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="M40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="N40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="O40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="P40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="R40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="S40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="T40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="U40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="V40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="W40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="X40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722466</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I41" t="n">
         <v>41.97878567833999</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="J43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="K43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="L43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722458</v>
       </c>
       <c r="M43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="N43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="O43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="P43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="R43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="S43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I44" t="n">
         <v>41.97878567833999</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="J46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="K46" t="n">
-        <v>47.18661671722447</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="L46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="M46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722452</v>
       </c>
       <c r="N46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="O46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="P46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="R46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="S46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.245856934372586</v>
+        <v>4.245856934372582</v>
       </c>
       <c r="H11" t="n">
-        <v>43.48288232914326</v>
+        <v>43.48288232914322</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6883994623993</v>
+        <v>163.6883994623991</v>
       </c>
       <c r="J11" t="n">
-        <v>360.3617999837056</v>
+        <v>360.3617999837052</v>
       </c>
       <c r="K11" t="n">
-        <v>540.0889240156973</v>
+        <v>540.0889240156968</v>
       </c>
       <c r="L11" t="n">
-        <v>670.0280681710025</v>
+        <v>670.0280681710018</v>
       </c>
       <c r="M11" t="n">
-        <v>745.5353264276509</v>
+        <v>745.5353264276501</v>
       </c>
       <c r="N11" t="n">
-        <v>757.5988674424372</v>
+        <v>757.5988674424362</v>
       </c>
       <c r="O11" t="n">
-        <v>715.3791275512697</v>
+        <v>715.3791275512689</v>
       </c>
       <c r="P11" t="n">
-        <v>610.5595344839463</v>
+        <v>610.5595344839456</v>
       </c>
       <c r="Q11" t="n">
-        <v>458.504783021728</v>
+        <v>458.5047830217275</v>
       </c>
       <c r="R11" t="n">
-        <v>266.7088106537822</v>
+        <v>266.7088106537819</v>
       </c>
       <c r="S11" t="n">
-        <v>96.75246489201541</v>
+        <v>96.7524648920153</v>
       </c>
       <c r="T11" t="n">
-        <v>18.58623873021601</v>
+        <v>18.58623873021599</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3396685547498068</v>
+        <v>0.3396685547498065</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.271733736159825</v>
+        <v>2.271733736159822</v>
       </c>
       <c r="H12" t="n">
-        <v>21.94016529396463</v>
+        <v>21.9401652939646</v>
       </c>
       <c r="I12" t="n">
-        <v>78.2153939862045</v>
+        <v>78.21539398620442</v>
       </c>
       <c r="J12" t="n">
-        <v>214.6290193448193</v>
+        <v>214.629019344819</v>
       </c>
       <c r="K12" t="n">
-        <v>366.8351796675275</v>
+        <v>366.8351796675271</v>
       </c>
       <c r="L12" t="n">
-        <v>493.2551693359304</v>
+        <v>493.2551693359299</v>
       </c>
       <c r="M12" t="n">
-        <v>575.6055172717239</v>
+        <v>575.6055172717233</v>
       </c>
       <c r="N12" t="n">
-        <v>590.8400825462344</v>
+        <v>590.8400825462338</v>
       </c>
       <c r="O12" t="n">
-        <v>540.5032455502719</v>
+        <v>540.5032455502713</v>
       </c>
       <c r="P12" t="n">
-        <v>433.8015061619582</v>
+        <v>433.8015061619577</v>
       </c>
       <c r="Q12" t="n">
-        <v>289.9848186719103</v>
+        <v>289.98481867191</v>
       </c>
       <c r="R12" t="n">
-        <v>141.046766531046</v>
+        <v>141.0467665310459</v>
       </c>
       <c r="S12" t="n">
-        <v>42.19645777472303</v>
+        <v>42.19645777472299</v>
       </c>
       <c r="T12" t="n">
-        <v>9.156681155837186</v>
+        <v>9.156681155837175</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1494561668526201</v>
+        <v>0.1494561668526199</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.904545251914262</v>
+        <v>1.90454525191426</v>
       </c>
       <c r="H13" t="n">
-        <v>16.93313869429227</v>
+        <v>16.93313869429225</v>
       </c>
       <c r="I13" t="n">
-        <v>57.27486993938527</v>
+        <v>57.27486993938521</v>
       </c>
       <c r="J13" t="n">
-        <v>134.6513493103383</v>
+        <v>134.6513493103382</v>
       </c>
       <c r="K13" t="n">
-        <v>221.2735301769478</v>
+        <v>221.2735301769476</v>
       </c>
       <c r="L13" t="n">
-        <v>283.1539368164168</v>
+        <v>283.1539368164164</v>
       </c>
       <c r="M13" t="n">
-        <v>298.5461252614328</v>
+        <v>298.5461252614325</v>
       </c>
       <c r="N13" t="n">
-        <v>291.4473656861163</v>
+        <v>291.447365686116</v>
       </c>
       <c r="O13" t="n">
-        <v>269.1988143342087</v>
+        <v>269.1988143342084</v>
       </c>
       <c r="P13" t="n">
-        <v>230.3460911951575</v>
+        <v>230.3460911951573</v>
       </c>
       <c r="Q13" t="n">
-        <v>159.4796937762024</v>
+        <v>159.4796937762023</v>
       </c>
       <c r="R13" t="n">
-        <v>85.63528014516305</v>
+        <v>85.63528014516297</v>
       </c>
       <c r="S13" t="n">
-        <v>33.19102952654217</v>
+        <v>33.19102952654213</v>
       </c>
       <c r="T13" t="n">
-        <v>8.137602439997298</v>
+        <v>8.137602439997289</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1038842864680508</v>
+        <v>0.1038842864680506</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>179.3158954570193</v>
+        <v>179.3158954570189</v>
       </c>
       <c r="K11" t="n">
-        <v>319.9990729707168</v>
+        <v>319.9990729707162</v>
       </c>
       <c r="L11" t="n">
-        <v>434.2616532010152</v>
+        <v>434.2616532010146</v>
       </c>
       <c r="M11" t="n">
-        <v>515.1890932003782</v>
+        <v>515.1890932003774</v>
       </c>
       <c r="N11" t="n">
-        <v>528.1858038458463</v>
+        <v>528.1858038458454</v>
       </c>
       <c r="O11" t="n">
-        <v>485.2809161295829</v>
+        <v>485.2809161295821</v>
       </c>
       <c r="P11" t="n">
-        <v>379.3265387286768</v>
+        <v>379.3265387286761</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.1990931472785</v>
+        <v>236.199093147278</v>
       </c>
       <c r="R11" t="n">
-        <v>51.1232728396501</v>
+        <v>51.12327283964981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.79139267815256</v>
+        <v>87.79139267815233</v>
       </c>
       <c r="K12" t="n">
-        <v>228.9937406931685</v>
+        <v>228.9937406931681</v>
       </c>
       <c r="L12" t="n">
-        <v>354.7007895560562</v>
+        <v>354.7007895560557</v>
       </c>
       <c r="M12" t="n">
-        <v>539.5800419783035</v>
+        <v>539.5800419783062</v>
       </c>
       <c r="N12" t="n">
-        <v>459.4983704629011</v>
+        <v>459.4983704629005</v>
       </c>
       <c r="O12" t="n">
-        <v>397.9070011058275</v>
+        <v>397.9070011058269</v>
       </c>
       <c r="P12" t="n">
-        <v>299.8270987476279</v>
+        <v>299.8270987476274</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.0030445858887</v>
+        <v>150.0030445858885</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.29216919366553</v>
+        <v>41.29216919366542</v>
       </c>
       <c r="K13" t="n">
-        <v>199.004038351065</v>
+        <v>199.0040383510648</v>
       </c>
       <c r="L13" t="n">
-        <v>310.7439620767329</v>
+        <v>310.7439620767326</v>
       </c>
       <c r="M13" t="n">
-        <v>338.1300022232734</v>
+        <v>338.1300022232732</v>
       </c>
       <c r="N13" t="n">
-        <v>335.5795380653449</v>
+        <v>335.5795380653446</v>
       </c>
       <c r="O13" t="n">
-        <v>293.7839422482484</v>
+        <v>293.7839422482481</v>
       </c>
       <c r="P13" t="n">
-        <v>227.624650460051</v>
+        <v>227.6246504600508</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.31765052450804</v>
+        <v>73.3176505245079</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>189.9023108020013</v>
       </c>
       <c r="K14" t="n">
-        <v>335.8653653277676</v>
+        <v>660.0107778989324</v>
       </c>
       <c r="L14" t="n">
-        <v>871.606406413929</v>
+        <v>864.1182901250857</v>
       </c>
       <c r="M14" t="n">
         <v>537.0908225742372</v>
@@ -35659,7 +35659,7 @@
         <v>550.4419260985273</v>
       </c>
       <c r="O14" t="n">
-        <v>822.9540375457868</v>
+        <v>506.296741263465</v>
       </c>
       <c r="P14" t="n">
         <v>397.2630592621467</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.24784682272039</v>
+        <v>45.24784682272042</v>
       </c>
       <c r="K16" t="n">
-        <v>205.5044318317543</v>
+        <v>205.5044318317544</v>
       </c>
       <c r="L16" t="n">
         <v>319.0622277248701</v>
       </c>
       <c r="M16" t="n">
-        <v>346.9004470423287</v>
+        <v>346.9004470423288</v>
       </c>
       <c r="N16" t="n">
         <v>344.1414413095112</v>
@@ -35884,10 +35884,10 @@
         <v>189.9023108020013</v>
       </c>
       <c r="K17" t="n">
-        <v>620.6703426677076</v>
+        <v>335.8653653277676</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9451918634786</v>
+        <v>738.7501692034182</v>
       </c>
       <c r="M17" t="n">
         <v>986.6043560670697</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994509</v>
       </c>
       <c r="K19" t="n">
         <v>252.691048548979</v>
       </c>
       <c r="L19" t="n">
-        <v>366.2488444420948</v>
+        <v>366.2488444420949</v>
       </c>
       <c r="M19" t="n">
         <v>394.0870637595534</v>
@@ -36054,10 +36054,10 @@
         <v>391.3280580267358</v>
       </c>
       <c r="O19" t="n">
-        <v>348.8788623956575</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P19" t="n">
-        <v>281.578186963433</v>
+        <v>281.5781869634331</v>
       </c>
       <c r="Q19" t="n">
         <v>125.1893317449119</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>189.9023108020013</v>
+        <v>358.9989259740751</v>
       </c>
       <c r="K20" t="n">
-        <v>660.0107778989324</v>
+        <v>335.8653653277676</v>
       </c>
       <c r="L20" t="n">
         <v>453.9451918634786</v>
       </c>
       <c r="M20" t="n">
-        <v>947.2639208358448</v>
+        <v>655.7961170992075</v>
       </c>
       <c r="N20" t="n">
         <v>550.4419260985273</v>
       </c>
       <c r="O20" t="n">
-        <v>506.296741263465</v>
+        <v>887.0969225262104</v>
       </c>
       <c r="P20" t="n">
         <v>397.2630592621467</v>
@@ -36142,7 +36142,7 @@
         <v>249.6686730831882</v>
       </c>
       <c r="R20" t="n">
-        <v>58.95842697051177</v>
+        <v>124.6748468434942</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994509</v>
       </c>
       <c r="K22" t="n">
         <v>252.691048548979</v>
       </c>
       <c r="L22" t="n">
-        <v>366.2488444420948</v>
+        <v>366.2488444420949</v>
       </c>
       <c r="M22" t="n">
         <v>394.0870637595534</v>
       </c>
       <c r="N22" t="n">
-        <v>391.3280580267358</v>
+        <v>391.3280580267356</v>
       </c>
       <c r="O22" t="n">
-        <v>348.8788623956575</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P22" t="n">
-        <v>281.5781869634332</v>
+        <v>281.5781869634331</v>
       </c>
       <c r="Q22" t="n">
         <v>125.1893317449119</v>
@@ -36358,7 +36358,7 @@
         <v>358.9989259740751</v>
       </c>
       <c r="K23" t="n">
-        <v>660.0107778989324</v>
+        <v>335.8653653277676</v>
       </c>
       <c r="L23" t="n">
         <v>453.9451918634786</v>
@@ -36367,13 +36367,13 @@
         <v>537.0908225742372</v>
       </c>
       <c r="N23" t="n">
-        <v>791.5184091880614</v>
+        <v>550.4419260985273</v>
       </c>
       <c r="O23" t="n">
-        <v>506.296741263465</v>
+        <v>749.7199287526806</v>
       </c>
       <c r="P23" t="n">
-        <v>397.2630592621467</v>
+        <v>719.0617674336293</v>
       </c>
       <c r="Q23" t="n">
         <v>249.6686730831882</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994509</v>
       </c>
       <c r="K25" t="n">
         <v>252.691048548979</v>
       </c>
       <c r="L25" t="n">
-        <v>366.2488444420948</v>
+        <v>366.2488444420949</v>
       </c>
       <c r="M25" t="n">
         <v>394.0870637595534</v>
@@ -36528,7 +36528,7 @@
         <v>391.3280580267358</v>
       </c>
       <c r="O25" t="n">
-        <v>348.8788623956575</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P25" t="n">
         <v>281.5781869634331</v>
@@ -36598,13 +36598,13 @@
         <v>335.8653653277676</v>
       </c>
       <c r="L26" t="n">
-        <v>871.606406413929</v>
+        <v>673.0337493304361</v>
       </c>
       <c r="M26" t="n">
-        <v>537.0908225742372</v>
+        <v>986.6043560670697</v>
       </c>
       <c r="N26" t="n">
-        <v>867.0992223808487</v>
+        <v>550.4419260985273</v>
       </c>
       <c r="O26" t="n">
         <v>506.296741263465</v>
@@ -36616,7 +36616,7 @@
         <v>249.6686730831882</v>
       </c>
       <c r="R26" t="n">
-        <v>58.95842697051177</v>
+        <v>124.6748468434942</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994504</v>
       </c>
       <c r="K28" t="n">
         <v>252.691048548979</v>
@@ -36768,7 +36768,7 @@
         <v>348.8788623956575</v>
       </c>
       <c r="P28" t="n">
-        <v>281.5781869634331</v>
+        <v>281.578186963433</v>
       </c>
       <c r="Q28" t="n">
         <v>125.1893317449119</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>189.9023108020013</v>
+        <v>358.9989259740751</v>
       </c>
       <c r="K29" t="n">
         <v>335.8653653277676</v>
@@ -36838,22 +36838,22 @@
         <v>453.9451918634786</v>
       </c>
       <c r="M29" t="n">
-        <v>834.0624089950248</v>
+        <v>537.0908225742372</v>
       </c>
       <c r="N29" t="n">
-        <v>987.7888505105115</v>
+        <v>550.4419260985273</v>
       </c>
       <c r="O29" t="n">
         <v>506.296741263465</v>
       </c>
       <c r="P29" t="n">
-        <v>397.2630592621467</v>
+        <v>719.0617674336293</v>
       </c>
       <c r="Q29" t="n">
-        <v>249.6686730831882</v>
+        <v>427.3754406994217</v>
       </c>
       <c r="R29" t="n">
-        <v>58.95842697051177</v>
+        <v>124.6748468434942</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994504</v>
       </c>
       <c r="K31" t="n">
         <v>252.691048548979</v>
@@ -37005,7 +37005,7 @@
         <v>348.8788623956575</v>
       </c>
       <c r="P31" t="n">
-        <v>281.5781869634331</v>
+        <v>281.578186963433</v>
       </c>
       <c r="Q31" t="n">
         <v>125.1893317449119</v>
@@ -37078,10 +37078,10 @@
         <v>537.0908225742372</v>
       </c>
       <c r="N32" t="n">
-        <v>903.9602556685553</v>
+        <v>987.7888505105115</v>
       </c>
       <c r="O32" t="n">
-        <v>887.0969225262104</v>
+        <v>737.5519078112708</v>
       </c>
       <c r="P32" t="n">
         <v>397.2630592621467</v>
@@ -37090,7 +37090,7 @@
         <v>249.6686730831882</v>
       </c>
       <c r="R32" t="n">
-        <v>58.95842697051177</v>
+        <v>124.6748468434942</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.43446353994507</v>
+        <v>92.43446353994506</v>
       </c>
       <c r="K34" t="n">
         <v>252.691048548979</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>358.9989259740751</v>
+        <v>189.9023108020013</v>
       </c>
       <c r="K35" t="n">
         <v>335.8653653277676</v>
       </c>
       <c r="L35" t="n">
-        <v>453.9451918634786</v>
+        <v>807.4635214335055</v>
       </c>
       <c r="M35" t="n">
-        <v>780.5140100634541</v>
+        <v>537.0908225742372</v>
       </c>
       <c r="N35" t="n">
         <v>550.4419260985273</v>
       </c>
       <c r="O35" t="n">
-        <v>506.296741263465</v>
+        <v>887.0969225262104</v>
       </c>
       <c r="P35" t="n">
-        <v>719.0617674336293</v>
+        <v>397.2630592621467</v>
       </c>
       <c r="Q35" t="n">
         <v>249.6686730831882</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.43446353994507</v>
+        <v>92.43446353994506</v>
       </c>
       <c r="K37" t="n">
         <v>252.691048548979</v>
@@ -37476,7 +37476,7 @@
         <v>391.3280580267358</v>
       </c>
       <c r="O37" t="n">
-        <v>348.8788623956576</v>
+        <v>348.8788623956574</v>
       </c>
       <c r="P37" t="n">
         <v>281.5781869634331</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>189.9023108020013</v>
+        <v>358.9989259740751</v>
       </c>
       <c r="K38" t="n">
         <v>335.8653653277676</v>
@@ -37549,10 +37549,10 @@
         <v>453.9451918634786</v>
       </c>
       <c r="M38" t="n">
-        <v>986.6043560670697</v>
+        <v>537.0908225742372</v>
       </c>
       <c r="N38" t="n">
-        <v>769.530483565485</v>
+        <v>837.6324112263393</v>
       </c>
       <c r="O38" t="n">
         <v>506.296741263465</v>
@@ -37561,7 +37561,7 @@
         <v>397.2630592621467</v>
       </c>
       <c r="Q38" t="n">
-        <v>249.6686730831882</v>
+        <v>461.9836637430929</v>
       </c>
       <c r="R38" t="n">
         <v>124.6748468434942</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.43446353994507</v>
+        <v>92.43446353994506</v>
       </c>
       <c r="K40" t="n">
         <v>252.691048548979</v>
@@ -37713,10 +37713,10 @@
         <v>391.3280580267358</v>
       </c>
       <c r="O40" t="n">
-        <v>348.8788623956576</v>
+        <v>348.8788623956575</v>
       </c>
       <c r="P40" t="n">
-        <v>281.5781869634331</v>
+        <v>281.578186963433</v>
       </c>
       <c r="Q40" t="n">
         <v>125.1893317449119</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>189.9023108020013</v>
+        <v>358.9989259740751</v>
       </c>
       <c r="K41" t="n">
-        <v>335.8653653277676</v>
+        <v>417.7096265650329</v>
       </c>
       <c r="L41" t="n">
-        <v>453.9451918634786</v>
+        <v>871.606406413929</v>
       </c>
       <c r="M41" t="n">
         <v>537.0908225742372</v>
       </c>
       <c r="N41" t="n">
-        <v>987.7888505105115</v>
+        <v>550.4419260985273</v>
       </c>
       <c r="O41" t="n">
-        <v>525.2369171513656</v>
+        <v>506.296741263465</v>
       </c>
       <c r="P41" t="n">
         <v>397.2630592621467</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.9836637430929</v>
+        <v>249.6686730831882</v>
       </c>
       <c r="R41" t="n">
         <v>124.6748468434942</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.43446353994509</v>
+        <v>92.43446353994507</v>
       </c>
       <c r="K43" t="n">
         <v>252.691048548979</v>
       </c>
       <c r="L43" t="n">
-        <v>366.2488444420949</v>
+        <v>366.2488444420947</v>
       </c>
       <c r="M43" t="n">
         <v>394.0870637595534</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>189.9023108020013</v>
+        <v>358.9989259740751</v>
       </c>
       <c r="K44" t="n">
-        <v>335.8653653277676</v>
+        <v>398.023916703499</v>
       </c>
       <c r="L44" t="n">
-        <v>871.606406413929</v>
+        <v>453.9451918634786</v>
       </c>
       <c r="M44" t="n">
-        <v>853.74811885656</v>
+        <v>537.0908225742372</v>
       </c>
       <c r="N44" t="n">
-        <v>550.4419260985273</v>
+        <v>987.7888505105115</v>
       </c>
       <c r="O44" t="n">
         <v>506.296741263465</v>
@@ -38038,7 +38038,7 @@
         <v>249.6686730831882</v>
       </c>
       <c r="R44" t="n">
-        <v>58.95842697051177</v>
+        <v>124.6748468434942</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.43446353994509</v>
+        <v>92.43446353994507</v>
       </c>
       <c r="K46" t="n">
-        <v>252.6910485489788</v>
+        <v>252.691048548979</v>
       </c>
       <c r="L46" t="n">
-        <v>366.2488444420949</v>
+        <v>366.2488444420948</v>
       </c>
       <c r="M46" t="n">
-        <v>394.0870637595534</v>
+        <v>394.0870637595532</v>
       </c>
       <c r="N46" t="n">
         <v>391.3280580267358</v>
